--- a/AraneaeIA/src/data/Araneae.xlsx
+++ b/AraneaeIA/src/data/Araneae.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ADU2"/>
+  <dimension ref="A1:ADU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6846,6 +6846,2411 @@
       </c>
       <c r="ADU2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>196.9314521568635</v>
+      </c>
+      <c r="B3" t="n">
+        <v>197.2690501960792</v>
+      </c>
+      <c r="C3" t="n">
+        <v>197.6515992156871</v>
+      </c>
+      <c r="D3" t="n">
+        <v>198.1362490196086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>198.2087113725499</v>
+      </c>
+      <c r="F3" t="n">
+        <v>198.0689239215691</v>
+      </c>
+      <c r="G3" t="n">
+        <v>197.9441800000005</v>
+      </c>
+      <c r="H3" t="n">
+        <v>198.168233725491</v>
+      </c>
+      <c r="I3" t="n">
+        <v>199.2398541176474</v>
+      </c>
+      <c r="J3" t="n">
+        <v>199.7429266666673</v>
+      </c>
+      <c r="K3" t="n">
+        <v>199.8797258823534</v>
+      </c>
+      <c r="L3" t="n">
+        <v>200.1828937254902</v>
+      </c>
+      <c r="M3" t="n">
+        <v>201.1745129411765</v>
+      </c>
+      <c r="N3" t="n">
+        <v>202.6581094117648</v>
+      </c>
+      <c r="O3" t="n">
+        <v>203.0013960784314</v>
+      </c>
+      <c r="P3" t="n">
+        <v>202.5154768627455</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>202.036613725491</v>
+      </c>
+      <c r="R3" t="n">
+        <v>202.2270901960792</v>
+      </c>
+      <c r="S3" t="n">
+        <v>202.5510003921577</v>
+      </c>
+      <c r="T3" t="n">
+        <v>203.202087843138</v>
+      </c>
+      <c r="U3" t="n">
+        <v>203.5505674509812</v>
+      </c>
+      <c r="V3" t="n">
+        <v>203.3071011764712</v>
+      </c>
+      <c r="W3" t="n">
+        <v>202.814652941177</v>
+      </c>
+      <c r="X3" t="n">
+        <v>202.7113360784322</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>203.3366231372548</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>203.3366788235294</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>203.3249780392157</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>203.2204200000002</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>203.0753921568629</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>203.9532917647059</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>204.9572180392159</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>205.422514901961</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>206.290095686275</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>206.8923345098044</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>207.7875654901965</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>207.5528337254904</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>208.0083431372555</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>208.7112654901966</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>208.0731152941183</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>207.9163619607849</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>208.5036439215691</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>207.9339313725496</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>207.6622380392165</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>207.2447627450988</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>207.2075129411771</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>207.8417870588241</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>208.1785352941183</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>208.8543509803928</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>208.6601431372552</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>208.6669239215693</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>208.7330396078435</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>209.6657537254906</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>210.3056152941182</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>210.9488368627457</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>211.2940062745101</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>210.2726929411768</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>210.2870988235301</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>210.40415137255</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>210.8382866666677</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>211.0383521568636</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>210.972068235295</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>211.6299435294127</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>212.7115831372557</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>213.4603360784319</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>213.4381607843142</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>213.8287725490199</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>213.4993988235298</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>213.5055329411768</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>214.5160337254907</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>214.6163686274515</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>215.2144180392162</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>216.486058039216</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>216.2539541176479</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>214.9566890196088</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>213.9063705882362</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>214.4680466666674</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>214.7672400000007</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>214.1243564705888</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>213.6499682352949</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>213.0916403921577</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>212.0244101960785</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>211.2849337254906</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>210.2222827450985</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>209.7050015686281</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>209.2815098039222</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>207.4747125490202</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>205.5102607843143</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>204.4556247058828</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>202.9515478431386</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>201.5440549019622</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>199.6038258823541</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>198.3486149019616</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>197.3985282352949</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>196.7442011764716</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>195.8030658823537</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>195.0317498039221</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>193.8687686274517</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>193.4782643137261</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>193.0101980392166</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>192.5529588235302</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>191.8150694117655</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>191.6586094117654</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>192.191639215687</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>192.984667450981</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>193.5991643137261</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>194.7623831372557</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>195.7776937254909</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>196.9000352941184</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>197.9903780392165</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>199.2860643137262</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>200.3814713725498</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>201.3099925490203</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>202.5870356862748</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>203.3135298039218</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>204.3187619607844</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>205.9761372549019</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>207.9102054901961</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>209.8215019607847</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>211.2146470588238</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>212.0048400000003</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>213.3673423529417</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>213.7285345098046</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>214.3335862745102</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>215.5656227450984</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>216.4654964705886</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>217.9211666666674</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>218.0894607843144</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>217.6858000000004</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>218.4540396078436</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>218.6624698039221</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>218.8445725490201</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>218.8267078431377</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>218.8772533333338</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>219.1368913725498</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>219.2000788235304</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>218.8221054901969</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>218.8569776470594</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>218.7484545098044</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>218.6444231372553</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>218.840168235295</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>218.6004701960791</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>219.1993215686281</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>219.6206470588243</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>219.728905490197</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>220.4947301960788</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>221.0276909803927</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>221.9790254901969</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>222.1394917647066</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>222.5325568627457</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>223.4419956862749</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>223.7575192156866</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>224.0397235294122</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>224.2040784313729</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>224.4655839215693</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>224.535163921569</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>224.8054745098044</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>225.3081537254903</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>225.3492831372551</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>225.3401866666668</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>225.7570078431376</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>226.279116078432</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>226.6806215686284</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>226.5409568627464</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>226.2727145098052</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>225.7439603921582</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>225.8937807843152</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>226.6714188235305</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>226.9591521568636</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>226.8875556862754</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>227.0448388235306</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>226.8103211764715</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>227.4771082352952</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>227.8037815686281</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>227.8631984313733</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>228.0198729411773</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>227.8107101960792</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>227.0148356862752</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>227.2302607843145</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>226.8237607843145</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>226.3950513725496</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>225.8002490196088</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>225.8372603921575</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>225.4544337254905</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>224.3755921568631</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>223.3457862745109</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>223.1536184313735</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>222.3972376470595</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>221.6656309803929</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>221.1302858823534</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>220.7424082352948</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>219.8906145098046</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>219.4891309803929</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>219.0412584313731</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>218.2966349019615</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>217.5383364705889</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>216.6227250980401</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>216.1184992156871</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>216.1363733333341</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>215.3914337254909</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>214.7713713725495</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>214.1780862745102</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>213.9598611764715</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>213.9318247058831</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>213.7979203921574</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>213.6519513725496</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>213.769475686275</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>213.751849019608</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>214.3765611764707</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>213.6722282352947</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>213.8046090196082</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>214.3784349019609</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>215.1437160784316</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>215.6387200000002</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>216.0400270588239</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>216.1214062745103</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>215.8557117647064</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>216.8003352941177</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>217.4289803921569</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>217.4574968627452</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>217.6909439215688</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>217.9058623529409</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>218.5848647058822</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>219.67758627451</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>220.2784843137254</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>220.2923360784314</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>220.2258168627451</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>220.477624705882</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>221.4362972549014</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>222.4286725490192</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>223.0951929411762</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>222.9013007843135</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>222.685943137255</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>222.6269890196079</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>221.6711039215685</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>219.8807796078432</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>217.9815627450982</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>215.034236862745</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>211.1142999999998</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>207.688616470588</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>206.0753266666664</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>205.2706584313723</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>204.1503094117643</v>
+      </c>
+      <c r="II3" t="n">
+        <v>202.5430474509801</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>200.7963584313723</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>198.9024078431372</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>197.9247282352937</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>198.6022086274505</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>199.9637035294112</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>202.771929411765</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>204.8855380392158</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>207.0062607843139</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>209.1815807843139</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>208.485545882353</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>206.5204839215685</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>206.312362352941</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>207.3274133333332</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>209.0299662745103</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>210.2744490196082</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>210.4875635294123</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>211.4181149019612</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>211.6297450980395</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>210.5877164705887</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>209.7588513725495</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>208.5109474509809</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>207.1763839215685</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>206.3085737254898</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>205.9284356862741</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>205.0154607843134</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>203.4050572549016</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>202.3999952941173</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>201.5136717647063</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>200.6218282352948</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>201.0368839215686</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>203.3034925490198</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>205.244981960785</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>206.5561858823538</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>207.534063529412</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>208.3330615686274</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>209.0120035294112</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>209.7518427450975</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>211.3493443137256</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>211.9373807843139</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>212.5523796078432</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>212.1713537254903</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>211.3358772549024</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>210.9734709803926</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>210.4477396078434</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>210.1726294117651</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>209.9520615686276</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>210.7519094117648</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>211.128985882353</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>211.0710956862747</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>211.2767376470588</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>211.7306729411762</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>212.2060250980388</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>213.0304968627445</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>212.9666788235297</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>213.0142572549025</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>213.1688780392161</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>213.5797282352946</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>214.3026431372553</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>214.246749803922</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>213.4974635294118</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>213.4022070588235</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>213.666122745098</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>213.6064070588236</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>213.7482466666662</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>214.1719235294113</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>215.5229321568623</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>216.8217937254897</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>217.207516470588</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>217.515685490196</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>218.6760172549025</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>219.2747760784319</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>219.9502972549022</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>220.5304231372552</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>220.7093141176472</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>221.8948788235297</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>221.9637129411772</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>221.0832415686283</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>219.484726666667</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>219.076836078432</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>218.9412329411769</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>219.3453509803926</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>219.5395549019609</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>219.3528007843137</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>219.0990454901962</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>219.1927925490195</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>219.4660768627449</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>220.0958407843135</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>221.4359184313725</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>222.110099215686</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>223.8568376470584</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>225.7049286274507</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>226.2502003921564</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>226.0975756862742</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>224.0394152941182</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>220.9277650980397</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>219.3747400000003</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>219.2695529411762</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>217.2923537254901</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>215.0941066666669</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>214.9247349019612</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>215.7523792156868</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>217.9136964705887</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>218.9510345098043</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>218.7446529411768</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>219.0740674509808</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>219.0987592156865</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>217.412880392157</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>216.0706537254897</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>216.0091890196076</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>215.7461254901957</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>221.0786286274508</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>225.944278823529</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>227.7917494117643</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>229.4332392156858</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>230.1920717647052</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>231.2257309803923</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>231.4036501960785</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>231.7751392156858</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>231.6922368627446</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>231.3780301960783</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>231.5045152941178</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>232.434991372549</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>232.3573733333334</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>231.8887529411765</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>232.4862184313724</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>231.9568878431371</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>231.3138525490194</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>230.6656435294115</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>230.7295388235292</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>231.0393286274508</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>231.098805098039</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>232.1880443137254</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>232.2212035294114</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>232.2512733333335</v>
+      </c>
+      <c r="NN3" t="n">
+        <v>230.2585333333336</v>
+      </c>
+      <c r="NO3" t="n">
+        <v>230.0185003921572</v>
+      </c>
+      <c r="NP3" t="n">
+        <v>229.0403945098044</v>
+      </c>
+      <c r="NQ3" t="n">
+        <v>228.1521454901963</v>
+      </c>
+      <c r="NR3" t="n">
+        <v>227.8394564705883</v>
+      </c>
+      <c r="NS3" t="n">
+        <v>227.5584415686275</v>
+      </c>
+      <c r="NT3" t="n">
+        <v>227.9185509803921</v>
+      </c>
+      <c r="NU3" t="n">
+        <v>227.2378149019611</v>
+      </c>
+      <c r="NV3" t="n">
+        <v>228.5801435294123</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>230.4017549019615</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>230.8968266666674</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>228.9975011764712</v>
+      </c>
+      <c r="NZ3" t="n">
+        <v>227.81528627451</v>
+      </c>
+      <c r="OA3" t="n">
+        <v>227.8323768627452</v>
+      </c>
+      <c r="OB3" t="n">
+        <v>228.4549227450986</v>
+      </c>
+      <c r="OC3" t="n">
+        <v>227.2409921568632</v>
+      </c>
+      <c r="OD3" t="n">
+        <v>225.5037658823535</v>
+      </c>
+      <c r="OE3" t="n">
+        <v>223.1228086274512</v>
+      </c>
+      <c r="OF3" t="n">
+        <v>220.0383964705883</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>216.8695149019609</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>213.9050286274513</v>
+      </c>
+      <c r="OI3" t="n">
+        <v>210.0249529411768</v>
+      </c>
+      <c r="OJ3" t="n">
+        <v>207.5067101960788</v>
+      </c>
+      <c r="OK3" t="n">
+        <v>207.6844109803924</v>
+      </c>
+      <c r="OL3" t="n">
+        <v>207.9371368627454</v>
+      </c>
+      <c r="OM3" t="n">
+        <v>207.2418749019614</v>
+      </c>
+      <c r="ON3" t="n">
+        <v>206.6575117647064</v>
+      </c>
+      <c r="OO3" t="n">
+        <v>204.5331694117652</v>
+      </c>
+      <c r="OP3" t="n">
+        <v>202.7944078431375</v>
+      </c>
+      <c r="OQ3" t="n">
+        <v>202.7020596078434</v>
+      </c>
+      <c r="OR3" t="n">
+        <v>204.2466454901963</v>
+      </c>
+      <c r="OS3" t="n">
+        <v>207.0712070588243</v>
+      </c>
+      <c r="OT3" t="n">
+        <v>209.6140929411771</v>
+      </c>
+      <c r="OU3" t="n">
+        <v>212.6826698039222</v>
+      </c>
+      <c r="OV3" t="n">
+        <v>214.486064313726</v>
+      </c>
+      <c r="OW3" t="n">
+        <v>216.4376329411769</v>
+      </c>
+      <c r="OX3" t="n">
+        <v>217.2257949019614</v>
+      </c>
+      <c r="OY3" t="n">
+        <v>217.7838584313731</v>
+      </c>
+      <c r="OZ3" t="n">
+        <v>220.5489243137261</v>
+      </c>
+      <c r="PA3" t="n">
+        <v>223.5791674509811</v>
+      </c>
+      <c r="PB3" t="n">
+        <v>224.618947843138</v>
+      </c>
+      <c r="PC3" t="n">
+        <v>226.7941011764713</v>
+      </c>
+      <c r="PD3" t="n">
+        <v>227.7073301960793</v>
+      </c>
+      <c r="PE3" t="n">
+        <v>230.4906031372556</v>
+      </c>
+      <c r="PF3" t="n">
+        <v>231.4352188235301</v>
+      </c>
+      <c r="PG3" t="n">
+        <v>232.3265647058833</v>
+      </c>
+      <c r="PH3" t="n">
+        <v>233.4266019607852</v>
+      </c>
+      <c r="PI3" t="n">
+        <v>231.8796317647058</v>
+      </c>
+      <c r="PJ3" t="n">
+        <v>231.1932113725489</v>
+      </c>
+      <c r="PK3" t="n">
+        <v>233.5740584313728</v>
+      </c>
+      <c r="PL3" t="n">
+        <v>233.4508384313729</v>
+      </c>
+      <c r="PM3" t="n">
+        <v>231.7561164705886</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>231.9506231372555</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>231.9164721568629</v>
+      </c>
+      <c r="PP3" t="n">
+        <v>232.8078482352942</v>
+      </c>
+      <c r="PQ3" t="n">
+        <v>233.6216992156863</v>
+      </c>
+      <c r="PR3" t="n">
+        <v>233.5766866666668</v>
+      </c>
+      <c r="PS3" t="n">
+        <v>231.672045490196</v>
+      </c>
+      <c r="PT3" t="n">
+        <v>230.5215133333333</v>
+      </c>
+      <c r="PU3" t="n">
+        <v>230.8718847058824</v>
+      </c>
+      <c r="PV3" t="n">
+        <v>233.1926392156865</v>
+      </c>
+      <c r="PW3" t="n">
+        <v>233.3768231372552</v>
+      </c>
+      <c r="PX3" t="n">
+        <v>232.5371364705885</v>
+      </c>
+      <c r="PY3" t="n">
+        <v>231.1739101960791</v>
+      </c>
+      <c r="PZ3" t="n">
+        <v>230.6396858823536</v>
+      </c>
+      <c r="QA3" t="n">
+        <v>233.6154380392161</v>
+      </c>
+      <c r="QB3" t="n">
+        <v>235.3289352941181</v>
+      </c>
+      <c r="QC3" t="n">
+        <v>234.1529878431379</v>
+      </c>
+      <c r="QD3" t="n">
+        <v>234.3867141176476</v>
+      </c>
+      <c r="QE3" t="n">
+        <v>236.3036137254907</v>
+      </c>
+      <c r="QF3" t="n">
+        <v>237.6474623529418</v>
+      </c>
+      <c r="QG3" t="n">
+        <v>238.210789803922</v>
+      </c>
+      <c r="QH3" t="n">
+        <v>239.2832125490199</v>
+      </c>
+      <c r="QI3" t="n">
+        <v>237.4884882352945</v>
+      </c>
+      <c r="QJ3" t="n">
+        <v>235.3452309803927</v>
+      </c>
+      <c r="QK3" t="n">
+        <v>236.6260419607845</v>
+      </c>
+      <c r="QL3" t="n">
+        <v>239.9895537254903</v>
+      </c>
+      <c r="QM3" t="n">
+        <v>240.7812811764707</v>
+      </c>
+      <c r="QN3" t="n">
+        <v>242.5025478431373</v>
+      </c>
+      <c r="QO3" t="n">
+        <v>243.4882137254906</v>
+      </c>
+      <c r="QP3" t="n">
+        <v>244.5751141176474</v>
+      </c>
+      <c r="QQ3" t="n">
+        <v>245.122396078432</v>
+      </c>
+      <c r="QR3" t="n">
+        <v>245.3748772549026</v>
+      </c>
+      <c r="QS3" t="n">
+        <v>245.2399568627455</v>
+      </c>
+      <c r="QT3" t="n">
+        <v>243.5034164705888</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>240.8743007843147</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>241.0083949019617</v>
+      </c>
+      <c r="QW3" t="n">
+        <v>240.8264533333344</v>
+      </c>
+      <c r="QX3" t="n">
+        <v>241.2894588235305</v>
+      </c>
+      <c r="QY3" t="n">
+        <v>242.1479788235303</v>
+      </c>
+      <c r="QZ3" t="n">
+        <v>242.3556725490206</v>
+      </c>
+      <c r="RA3" t="n">
+        <v>242.785519607844</v>
+      </c>
+      <c r="RB3" t="n">
+        <v>245.540296078432</v>
+      </c>
+      <c r="RC3" t="n">
+        <v>247.1287184313735</v>
+      </c>
+      <c r="RD3" t="n">
+        <v>249.0950972549027</v>
+      </c>
+      <c r="RE3" t="n">
+        <v>251.2882294117649</v>
+      </c>
+      <c r="RF3" t="n">
+        <v>253.7577262745101</v>
+      </c>
+      <c r="RG3" t="n">
+        <v>250.8924509803926</v>
+      </c>
+      <c r="RH3" t="n">
+        <v>248.4361427450982</v>
+      </c>
+      <c r="RI3" t="n">
+        <v>246.4026337254905</v>
+      </c>
+      <c r="RJ3" t="n">
+        <v>244.2277113725495</v>
+      </c>
+      <c r="RK3" t="n">
+        <v>241.5914239215691</v>
+      </c>
+      <c r="RL3" t="n">
+        <v>239.9490517647061</v>
+      </c>
+      <c r="RM3" t="n">
+        <v>239.8297631372548</v>
+      </c>
+      <c r="RN3" t="n">
+        <v>239.9353807843137</v>
+      </c>
+      <c r="RO3" t="n">
+        <v>240.8139513725492</v>
+      </c>
+      <c r="RP3" t="n">
+        <v>243.3616650980396</v>
+      </c>
+      <c r="RQ3" t="n">
+        <v>245.5669372549023</v>
+      </c>
+      <c r="RR3" t="n">
+        <v>247.5483592156868</v>
+      </c>
+      <c r="RS3" t="n">
+        <v>251.2830039215689</v>
+      </c>
+      <c r="RT3" t="n">
+        <v>255.1434286274514</v>
+      </c>
+      <c r="RU3" t="n">
+        <v>256.7868090196077</v>
+      </c>
+      <c r="RV3" t="n">
+        <v>257.7538917647056</v>
+      </c>
+      <c r="RW3" t="n">
+        <v>259.1274996078425</v>
+      </c>
+      <c r="RX3" t="n">
+        <v>259.273310196078</v>
+      </c>
+      <c r="RY3" t="n">
+        <v>260.3423905882349</v>
+      </c>
+      <c r="RZ3" t="n">
+        <v>260.6520611764701</v>
+      </c>
+      <c r="SA3" t="n">
+        <v>259.7174764705875</v>
+      </c>
+      <c r="SB3" t="n">
+        <v>261.2147752941169</v>
+      </c>
+      <c r="SC3" t="n">
+        <v>262.2467639215678</v>
+      </c>
+      <c r="SD3" t="n">
+        <v>262.3902513725483</v>
+      </c>
+      <c r="SE3" t="n">
+        <v>263.5871490196071</v>
+      </c>
+      <c r="SF3" t="n">
+        <v>264.311254509803</v>
+      </c>
+      <c r="SG3" t="n">
+        <v>264.6886298039207</v>
+      </c>
+      <c r="SH3" t="n">
+        <v>263.5711513725483</v>
+      </c>
+      <c r="SI3" t="n">
+        <v>260.9803156862737</v>
+      </c>
+      <c r="SJ3" t="n">
+        <v>261.0686043137243</v>
+      </c>
+      <c r="SK3" t="n">
+        <v>262.4004662745091</v>
+      </c>
+      <c r="SL3" t="n">
+        <v>263.3396862745089</v>
+      </c>
+      <c r="SM3" t="n">
+        <v>262.0679317647055</v>
+      </c>
+      <c r="SN3" t="n">
+        <v>260.4895694117643</v>
+      </c>
+      <c r="SO3" t="n">
+        <v>260.6385431372546</v>
+      </c>
+      <c r="SP3" t="n">
+        <v>260.5976411764701</v>
+      </c>
+      <c r="SQ3" t="n">
+        <v>260.6395662745097</v>
+      </c>
+      <c r="SR3" t="n">
+        <v>262.0268811764706</v>
+      </c>
+      <c r="SS3" t="n">
+        <v>263.863747843137</v>
+      </c>
+      <c r="ST3" t="n">
+        <v>265.3871082352937</v>
+      </c>
+      <c r="SU3" t="n">
+        <v>267.5154250980389</v>
+      </c>
+      <c r="SV3" t="n">
+        <v>269.1771250980386</v>
+      </c>
+      <c r="SW3" t="n">
+        <v>269.8639313725484</v>
+      </c>
+      <c r="SX3" t="n">
+        <v>270.9993733333328</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>272.9668039215678</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>274.788582745097</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>278.9782870588221</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>282.9810372549002</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>286.4762678431351</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>288.4661070588216</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>289.8704137254882</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>290.045685490194</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>289.4573803921551</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>288.3062694117627</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>287.4170741176453</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>288.2589568627433</v>
+      </c>
+      <c r="TK3" t="n">
+        <v>288.6522384313705</v>
+      </c>
+      <c r="TL3" t="n">
+        <v>288.0921443137237</v>
+      </c>
+      <c r="TM3" t="n">
+        <v>287.3530776470569</v>
+      </c>
+      <c r="TN3" t="n">
+        <v>289.0208223529395</v>
+      </c>
+      <c r="TO3" t="n">
+        <v>291.5370596078415</v>
+      </c>
+      <c r="TP3" t="n">
+        <v>292.0858223529396</v>
+      </c>
+      <c r="TQ3" t="n">
+        <v>293.2898137254889</v>
+      </c>
+      <c r="TR3" t="n">
+        <v>295.7286627450965</v>
+      </c>
+      <c r="TS3" t="n">
+        <v>296.9899423529393</v>
+      </c>
+      <c r="TT3" t="n">
+        <v>297.4956780392136</v>
+      </c>
+      <c r="TU3" t="n">
+        <v>296.8623439215665</v>
+      </c>
+      <c r="TV3" t="n">
+        <v>298.2612427450957</v>
+      </c>
+      <c r="TW3" t="n">
+        <v>300.4880972548996</v>
+      </c>
+      <c r="TX3" t="n">
+        <v>300.4997203921546</v>
+      </c>
+      <c r="TY3" t="n">
+        <v>300.4860694117623</v>
+      </c>
+      <c r="TZ3" t="n">
+        <v>300.0562603921543</v>
+      </c>
+      <c r="UA3" t="n">
+        <v>299.0417650980364</v>
+      </c>
+      <c r="UB3" t="n">
+        <v>298.8083372548995</v>
+      </c>
+      <c r="UC3" t="n">
+        <v>296.7553690196055</v>
+      </c>
+      <c r="UD3" t="n">
+        <v>295.3673674509785</v>
+      </c>
+      <c r="UE3" t="n">
+        <v>295.5241796078413</v>
+      </c>
+      <c r="UF3" t="n">
+        <v>295.1575384313707</v>
+      </c>
+      <c r="UG3" t="n">
+        <v>294.8023529411747</v>
+      </c>
+      <c r="UH3" t="n">
+        <v>294.1001117647039</v>
+      </c>
+      <c r="UI3" t="n">
+        <v>294.2084384313707</v>
+      </c>
+      <c r="UJ3" t="n">
+        <v>294.7760898039197</v>
+      </c>
+      <c r="UK3" t="n">
+        <v>294.2971552941157</v>
+      </c>
+      <c r="UL3" t="n">
+        <v>292.2368466666645</v>
+      </c>
+      <c r="UM3" t="n">
+        <v>289.4654678431347</v>
+      </c>
+      <c r="UN3" t="n">
+        <v>288.0331780392129</v>
+      </c>
+      <c r="UO3" t="n">
+        <v>286.402414117645</v>
+      </c>
+      <c r="UP3" t="n">
+        <v>286.1166788235275</v>
+      </c>
+      <c r="UQ3" t="n">
+        <v>283.8636403921545</v>
+      </c>
+      <c r="UR3" t="n">
+        <v>282.6776780392132</v>
+      </c>
+      <c r="US3" t="n">
+        <v>282.0313141176447</v>
+      </c>
+      <c r="UT3" t="n">
+        <v>282.1369803921548</v>
+      </c>
+      <c r="UU3" t="n">
+        <v>282.1567568627439</v>
+      </c>
+      <c r="UV3" t="n">
+        <v>283.9181784313711</v>
+      </c>
+      <c r="UW3" t="n">
+        <v>285.7780011764689</v>
+      </c>
+      <c r="UX3" t="n">
+        <v>287.1857623529393</v>
+      </c>
+      <c r="UY3" t="n">
+        <v>290.097927843135</v>
+      </c>
+      <c r="UZ3" t="n">
+        <v>293.1056760784294</v>
+      </c>
+      <c r="VA3" t="n">
+        <v>297.4097082352923</v>
+      </c>
+      <c r="VB3" t="n">
+        <v>301.1769211764682</v>
+      </c>
+      <c r="VC3" t="n">
+        <v>304.4323219607818</v>
+      </c>
+      <c r="VD3" t="n">
+        <v>305.5388949019584</v>
+      </c>
+      <c r="VE3" t="n">
+        <v>305.9804788235286</v>
+      </c>
+      <c r="VF3" t="n">
+        <v>305.2419713725481</v>
+      </c>
+      <c r="VG3" t="n">
+        <v>306.1996035294113</v>
+      </c>
+      <c r="VH3" t="n">
+        <v>307.4498984313718</v>
+      </c>
+      <c r="VI3" t="n">
+        <v>307.8399458823522</v>
+      </c>
+      <c r="VJ3" t="n">
+        <v>307.9971121568622</v>
+      </c>
+      <c r="VK3" t="n">
+        <v>312.2173501960773</v>
+      </c>
+      <c r="VL3" t="n">
+        <v>314.7789682352933</v>
+      </c>
+      <c r="VM3" t="n">
+        <v>315.8288113725479</v>
+      </c>
+      <c r="VN3" t="n">
+        <v>315.090544705881</v>
+      </c>
+      <c r="VO3" t="n">
+        <v>314.6286615686261</v>
+      </c>
+      <c r="VP3" t="n">
+        <v>314.4182843137243</v>
+      </c>
+      <c r="VQ3" t="n">
+        <v>311.5705686274497</v>
+      </c>
+      <c r="VR3" t="n">
+        <v>311.1699847058813</v>
+      </c>
+      <c r="VS3" t="n">
+        <v>312.0090650980379</v>
+      </c>
+      <c r="VT3" t="n">
+        <v>312.614084313724</v>
+      </c>
+      <c r="VU3" t="n">
+        <v>313.0562592156853</v>
+      </c>
+      <c r="VV3" t="n">
+        <v>313.3006427450973</v>
+      </c>
+      <c r="VW3" t="n">
+        <v>313.3514192156852</v>
+      </c>
+      <c r="VX3" t="n">
+        <v>311.1500972549006</v>
+      </c>
+      <c r="VY3" t="n">
+        <v>308.4350815686266</v>
+      </c>
+      <c r="VZ3" t="n">
+        <v>308.4832972549011</v>
+      </c>
+      <c r="WA3" t="n">
+        <v>307.8455709803912</v>
+      </c>
+      <c r="WB3" t="n">
+        <v>305.4240709803913</v>
+      </c>
+      <c r="WC3" t="n">
+        <v>299.1875388235295</v>
+      </c>
+      <c r="WD3" t="n">
+        <v>293.2724839215688</v>
+      </c>
+      <c r="WE3" t="n">
+        <v>288.7050325490201</v>
+      </c>
+      <c r="WF3" t="n">
+        <v>286.7284443137258</v>
+      </c>
+      <c r="WG3" t="n">
+        <v>285.9787443137258</v>
+      </c>
+      <c r="WH3" t="n">
+        <v>283.2648074509809</v>
+      </c>
+      <c r="WI3" t="n">
+        <v>279.4298101960786</v>
+      </c>
+      <c r="WJ3" t="n">
+        <v>279.1317094117645</v>
+      </c>
+      <c r="WK3" t="n">
+        <v>279.9421117647059</v>
+      </c>
+      <c r="WL3" t="n">
+        <v>280.6531752941175</v>
+      </c>
+      <c r="WM3" t="n">
+        <v>280.3679172549025</v>
+      </c>
+      <c r="WN3" t="n">
+        <v>283.0166552941177</v>
+      </c>
+      <c r="WO3" t="n">
+        <v>287.9103474509811</v>
+      </c>
+      <c r="WP3" t="n">
+        <v>292.8592792156868</v>
+      </c>
+      <c r="WQ3" t="n">
+        <v>295.3311560784318</v>
+      </c>
+      <c r="WR3" t="n">
+        <v>297.2704407843139</v>
+      </c>
+      <c r="WS3" t="n">
+        <v>299.3288062745098</v>
+      </c>
+      <c r="WT3" t="n">
+        <v>302.017151764706</v>
+      </c>
+      <c r="WU3" t="n">
+        <v>304.0670243137257</v>
+      </c>
+      <c r="WV3" t="n">
+        <v>304.8555533333333</v>
+      </c>
+      <c r="WW3" t="n">
+        <v>306.9023756862749</v>
+      </c>
+      <c r="WX3" t="n">
+        <v>309.4312141176475</v>
+      </c>
+      <c r="WY3" t="n">
+        <v>308.3516376470589</v>
+      </c>
+      <c r="WZ3" t="n">
+        <v>305.6827133333337</v>
+      </c>
+      <c r="XA3" t="n">
+        <v>302.2123733333316</v>
+      </c>
+      <c r="XB3" t="n">
+        <v>297.8767262745081</v>
+      </c>
+      <c r="XC3" t="n">
+        <v>293.9261243137239</v>
+      </c>
+      <c r="XD3" t="n">
+        <v>291.9872945098023</v>
+      </c>
+      <c r="XE3" t="n">
+        <v>288.3518427450967</v>
+      </c>
+      <c r="XF3" t="n">
+        <v>283.7774988235285</v>
+      </c>
+      <c r="XG3" t="n">
+        <v>278.0991478431363</v>
+      </c>
+      <c r="XH3" t="n">
+        <v>273.5062749019604</v>
+      </c>
+      <c r="XI3" t="n">
+        <v>269.3123921568621</v>
+      </c>
+      <c r="XJ3" t="n">
+        <v>267.3803537254894</v>
+      </c>
+      <c r="XK3" t="n">
+        <v>265.4917152941173</v>
+      </c>
+      <c r="XL3" t="n">
+        <v>265.6290929411761</v>
+      </c>
+      <c r="XM3" t="n">
+        <v>268.5373788235293</v>
+      </c>
+      <c r="XN3" t="n">
+        <v>270.3533815686271</v>
+      </c>
+      <c r="XO3" t="n">
+        <v>269.7092027450972</v>
+      </c>
+      <c r="XP3" t="n">
+        <v>269.6826803921566</v>
+      </c>
+      <c r="XQ3" t="n">
+        <v>267.6852082352942</v>
+      </c>
+      <c r="XR3" t="n">
+        <v>265.3178047058825</v>
+      </c>
+      <c r="XS3" t="n">
+        <v>263.506911372549</v>
+      </c>
+      <c r="XT3" t="n">
+        <v>259.8111498039209</v>
+      </c>
+      <c r="XU3" t="n">
+        <v>255.6918337254904</v>
+      </c>
+      <c r="XV3" t="n">
+        <v>248.7868866666668</v>
+      </c>
+      <c r="XW3" t="n">
+        <v>240.9492741176471</v>
+      </c>
+      <c r="XX3" t="n">
+        <v>236.1846933333336</v>
+      </c>
+      <c r="XY3" t="n">
+        <v>231.8145286274509</v>
+      </c>
+      <c r="XZ3" t="n">
+        <v>230.9883925490199</v>
+      </c>
+      <c r="YA3" t="n">
+        <v>232.4522623529414</v>
+      </c>
+      <c r="YB3" t="n">
+        <v>235.1156176470584</v>
+      </c>
+      <c r="YC3" t="n">
+        <v>236.8793882352935</v>
+      </c>
+      <c r="YD3" t="n">
+        <v>239.0484298039206</v>
+      </c>
+      <c r="YE3" t="n">
+        <v>240.5635337254895</v>
+      </c>
+      <c r="YF3" t="n">
+        <v>240.1353231372545</v>
+      </c>
+      <c r="YG3" t="n">
+        <v>239.2119749019603</v>
+      </c>
+      <c r="YH3" t="n">
+        <v>239.135520392156</v>
+      </c>
+      <c r="YI3" t="n">
+        <v>238.4829549019601</v>
+      </c>
+      <c r="YJ3" t="n">
+        <v>237.4579905882347</v>
+      </c>
+      <c r="YK3" t="n">
+        <v>237.4816882352935</v>
+      </c>
+      <c r="YL3" t="n">
+        <v>237.0979254901952</v>
+      </c>
+      <c r="YM3" t="n">
+        <v>236.6293643137243</v>
+      </c>
+      <c r="YN3" t="n">
+        <v>236.9047658823521</v>
+      </c>
+      <c r="YO3" t="n">
+        <v>236.0454909803912</v>
+      </c>
+      <c r="YP3" t="n">
+        <v>235.1488380392144</v>
+      </c>
+      <c r="YQ3" t="n">
+        <v>233.8351501960773</v>
+      </c>
+      <c r="YR3" t="n">
+        <v>233.1124466666655</v>
+      </c>
+      <c r="YS3" t="n">
+        <v>232.3910282352929</v>
+      </c>
+      <c r="YT3" t="n">
+        <v>231.2413968627442</v>
+      </c>
+      <c r="YU3" t="n">
+        <v>229.1673223529401</v>
+      </c>
+      <c r="YV3" t="n">
+        <v>227.6231568627441</v>
+      </c>
+      <c r="YW3" t="n">
+        <v>226.1343109803911</v>
+      </c>
+      <c r="YX3" t="n">
+        <v>224.6873823529403</v>
+      </c>
+      <c r="YY3" t="n">
+        <v>223.8678011764701</v>
+      </c>
+      <c r="YZ3" t="n">
+        <v>223.8704670588227</v>
+      </c>
+      <c r="ZA3" t="n">
+        <v>223.215165490195</v>
+      </c>
+      <c r="ZB3" t="n">
+        <v>222.4037556862733</v>
+      </c>
+      <c r="ZC3" t="n">
+        <v>221.5330556862735</v>
+      </c>
+      <c r="ZD3" t="n">
+        <v>220.5542392156854</v>
+      </c>
+      <c r="ZE3" t="n">
+        <v>219.2796129411758</v>
+      </c>
+      <c r="ZF3" t="n">
+        <v>219.8017529411758</v>
+      </c>
+      <c r="ZG3" t="n">
+        <v>219.4610619607836</v>
+      </c>
+      <c r="ZH3" t="n">
+        <v>219.3939478431362</v>
+      </c>
+      <c r="ZI3" t="n">
+        <v>219.3789686274501</v>
+      </c>
+      <c r="ZJ3" t="n">
+        <v>217.6607650980384</v>
+      </c>
+      <c r="ZK3" t="n">
+        <v>216.9079650980386</v>
+      </c>
+      <c r="ZL3" t="n">
+        <v>215.9679392156858</v>
+      </c>
+      <c r="ZM3" t="n">
+        <v>215.8984882352931</v>
+      </c>
+      <c r="ZN3" t="n">
+        <v>215.6087360784305</v>
+      </c>
+      <c r="ZO3" t="n">
+        <v>215.0760215686268</v>
+      </c>
+      <c r="ZP3" t="n">
+        <v>215.0977584313718</v>
+      </c>
+      <c r="ZQ3" t="n">
+        <v>216.1679062745089</v>
+      </c>
+      <c r="ZR3" t="n">
+        <v>216.4745352941167</v>
+      </c>
+      <c r="ZS3" t="n">
+        <v>216.5241443137246</v>
+      </c>
+      <c r="ZT3" t="n">
+        <v>218.2587898039205</v>
+      </c>
+      <c r="ZU3" t="n">
+        <v>218.3766976470587</v>
+      </c>
+      <c r="ZV3" t="n">
+        <v>218.2397309803916</v>
+      </c>
+      <c r="ZW3" t="n">
+        <v>218.3083772549018</v>
+      </c>
+      <c r="ZX3" t="n">
+        <v>216.6339462745096</v>
+      </c>
+      <c r="ZY3" t="n">
+        <v>216.4106043137252</v>
+      </c>
+      <c r="ZZ3" t="n">
+        <v>216.6367270588234</v>
+      </c>
+      <c r="AAA3" t="n">
+        <v>216.0731337254898</v>
+      </c>
+      <c r="AAB3" t="n">
+        <v>215.5644745098036</v>
+      </c>
+      <c r="AAC3" t="n">
+        <v>214.859099215686</v>
+      </c>
+      <c r="AAD3" t="n">
+        <v>216.2779396078426</v>
+      </c>
+      <c r="AAE3" t="n">
+        <v>216.2055423529407</v>
+      </c>
+      <c r="AAF3" t="n">
+        <v>215.7474529411757</v>
+      </c>
+      <c r="AAG3" t="n">
+        <v>215.7569666666662</v>
+      </c>
+      <c r="AAH3" t="n">
+        <v>215.846219215686</v>
+      </c>
+      <c r="AAI3" t="n">
+        <v>215.727421960784</v>
+      </c>
+      <c r="AAJ3" t="n">
+        <v>215.8353141176467</v>
+      </c>
+      <c r="AAK3" t="n">
+        <v>216.3079231372543</v>
+      </c>
+      <c r="AAL3" t="n">
+        <v>217.1502756862736</v>
+      </c>
+      <c r="AAM3" t="n">
+        <v>218.390986666666</v>
+      </c>
+      <c r="AAN3" t="n">
+        <v>219.9787027450975</v>
+      </c>
+      <c r="AAO3" t="n">
+        <v>220.1271862745091</v>
+      </c>
+      <c r="AAP3" t="n">
+        <v>220.332912941176</v>
+      </c>
+      <c r="AAQ3" t="n">
+        <v>220.3795588235286</v>
+      </c>
+      <c r="AAR3" t="n">
+        <v>220.8408713725485</v>
+      </c>
+      <c r="AAS3" t="n">
+        <v>220.7490682352933</v>
+      </c>
+      <c r="AAT3" t="n">
+        <v>220.9022705882342</v>
+      </c>
+      <c r="AAU3" t="n">
+        <v>221.1265721568619</v>
+      </c>
+      <c r="AAV3" t="n">
+        <v>221.6051403921564</v>
+      </c>
+      <c r="AAW3" t="n">
+        <v>221.9757662745096</v>
+      </c>
+      <c r="AAX3" t="n">
+        <v>222.1556211764701</v>
+      </c>
+      <c r="AAY3" t="n">
+        <v>221.7281298039208</v>
+      </c>
+      <c r="AAZ3" t="n">
+        <v>221.6649007843138</v>
+      </c>
+      <c r="ABA3" t="n">
+        <v>221.1886349019597</v>
+      </c>
+      <c r="ABB3" t="n">
+        <v>221.1438109803908</v>
+      </c>
+      <c r="ABC3" t="n">
+        <v>220.9551764705864</v>
+      </c>
+      <c r="ABD3" t="n">
+        <v>221.1538482352926</v>
+      </c>
+      <c r="ABE3" t="n">
+        <v>221.3784854901948</v>
+      </c>
+      <c r="ABF3" t="n">
+        <v>221.5337890196065</v>
+      </c>
+      <c r="ABG3" t="n">
+        <v>221.6544372549012</v>
+      </c>
+      <c r="ABH3" t="n">
+        <v>221.7991282352936</v>
+      </c>
+      <c r="ABI3" t="n">
+        <v>221.5314819607835</v>
+      </c>
+      <c r="ABJ3" t="n">
+        <v>221.4814109803913</v>
+      </c>
+      <c r="ABK3" t="n">
+        <v>221.3342023529401</v>
+      </c>
+      <c r="ABL3" t="n">
+        <v>221.3908094117637</v>
+      </c>
+      <c r="ABM3" t="n">
+        <v>221.2280278431361</v>
+      </c>
+      <c r="ABN3" t="n">
+        <v>221.0815325490181</v>
+      </c>
+      <c r="ABO3" t="n">
+        <v>221.0843701960773</v>
+      </c>
+      <c r="ABP3" t="n">
+        <v>221.1305525490186</v>
+      </c>
+      <c r="ABQ3" t="n">
+        <v>221.3187450980388</v>
+      </c>
+      <c r="ABR3" t="n">
+        <v>221.4908843137251</v>
+      </c>
+      <c r="ABS3" t="n">
+        <v>221.4064658823531</v>
+      </c>
+      <c r="ABT3" t="n">
+        <v>221.6755662745102</v>
+      </c>
+      <c r="ABU3" t="n">
+        <v>225.437383921569</v>
+      </c>
+      <c r="ABV3" t="n">
+        <v>224.9285694117646</v>
+      </c>
+      <c r="ABW3" t="n">
+        <v>223.6339545098036</v>
+      </c>
+      <c r="ABX3" t="n">
+        <v>223.2299803921562</v>
+      </c>
+      <c r="ABY3" t="n">
+        <v>222.7515019607842</v>
+      </c>
+      <c r="ABZ3" t="n">
+        <v>222.5081156862741</v>
+      </c>
+      <c r="ACA3" t="n">
+        <v>222.8191415686273</v>
+      </c>
+      <c r="ACB3" t="n">
+        <v>222.6109278431372</v>
+      </c>
+      <c r="ACC3" t="n">
+        <v>221.8960874509802</v>
+      </c>
+      <c r="ACD3" t="n">
+        <v>223.3088313725487</v>
+      </c>
+      <c r="ACE3" t="n">
+        <v>224.7555992156856</v>
+      </c>
+      <c r="ACF3" t="n">
+        <v>227.6551709803921</v>
+      </c>
+      <c r="ACG3" t="n">
+        <v>223.8970913725482</v>
+      </c>
+      <c r="ACH3" t="n">
+        <v>223.2098294117638</v>
+      </c>
+      <c r="ACI3" t="n">
+        <v>222.8600427450968</v>
+      </c>
+      <c r="ACJ3" t="n">
+        <v>223.2396164705868</v>
+      </c>
+      <c r="ACK3" t="n">
+        <v>221.9535043137245</v>
+      </c>
+      <c r="ACL3" t="n">
+        <v>221.7189682352931</v>
+      </c>
+      <c r="ACM3" t="n">
+        <v>222.5967082352936</v>
+      </c>
+      <c r="ACN3" t="n">
+        <v>224.4890298039214</v>
+      </c>
+      <c r="ACO3" t="n">
+        <v>222.4939411764709</v>
+      </c>
+      <c r="ACP3" t="n">
+        <v>222.8120011764709</v>
+      </c>
+      <c r="ACQ3" t="n">
+        <v>223.9717980392165</v>
+      </c>
+      <c r="ACR3" t="n">
+        <v>222.0898870588242</v>
+      </c>
+      <c r="ACS3" t="n">
+        <v>222.1151207843144</v>
+      </c>
+      <c r="ACT3" t="n">
+        <v>222.9851247058827</v>
+      </c>
+      <c r="ACU3" t="n">
+        <v>224.3903047058827</v>
+      </c>
+      <c r="ACV3" t="n">
+        <v>222.9136050980395</v>
+      </c>
+      <c r="ACW3" t="n">
+        <v>223.1811564705888</v>
+      </c>
+      <c r="ACX3" t="n">
+        <v>224.2122980392165</v>
+      </c>
+      <c r="ACY3" t="n">
+        <v>222.5579007843146</v>
+      </c>
+      <c r="ACZ3" t="n">
+        <v>222.0800231372556</v>
+      </c>
+      <c r="ADA3" t="n">
+        <v>221.6383776470595</v>
+      </c>
+      <c r="ADB3" t="n">
+        <v>223.2284752941181</v>
+      </c>
+      <c r="ADC3" t="n">
+        <v>223.4799137254907</v>
+      </c>
+      <c r="ADD3" t="n">
+        <v>223.5777321568632</v>
+      </c>
+      <c r="ADE3" t="n">
+        <v>223.2031854901973</v>
+      </c>
+      <c r="ADF3" t="n">
+        <v>222.6917611764719</v>
+      </c>
+      <c r="ADG3" t="n">
+        <v>224.6524913725502</v>
+      </c>
+      <c r="ADH3" t="n">
+        <v>223.5120901960796</v>
+      </c>
+      <c r="ADI3" t="n">
+        <v>222.3006427450991</v>
+      </c>
+      <c r="ADJ3" t="n">
+        <v>223.4882278431383</v>
+      </c>
+      <c r="ADK3" t="n">
+        <v>223.5942494117659</v>
+      </c>
+      <c r="ADL3" t="n">
+        <v>226.652263529413</v>
+      </c>
+      <c r="ADM3" t="n">
+        <v>224.5929886274516</v>
+      </c>
+      <c r="ADN3" t="n">
+        <v>225.5126917647067</v>
+      </c>
+      <c r="ADO3" t="n">
+        <v>225.7955329411772</v>
+      </c>
+      <c r="ADP3" t="n">
+        <v>225.9563149019613</v>
+      </c>
+      <c r="ADQ3" t="n">
+        <v>226.7273149019612</v>
+      </c>
+      <c r="ADR3" t="n">
+        <v>225.01639882353</v>
+      </c>
+      <c r="ADS3" t="n">
+        <v>225.4726929411771</v>
+      </c>
+      <c r="ADT3" t="n">
+        <v>226.0625549019616</v>
+      </c>
+      <c r="ADU3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6859,7 +9264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6907,7 +9312,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/static/assets/utils/a_awdRxtK.jpg</t>
+          <t>/static/assets/utils/a_ebS5waG.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>torre</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>torre</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/static/assets/utils/Ege3mN8XgAYz9OK_dXzwcei.jpg</t>
         </is>
       </c>
     </row>
@@ -6939,4007 +9366,4007 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0503003242913e-18</v>
+        <v>1.419501576033039e-17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.486316869744606e-11</v>
+        <v>3.54349871904757e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.220526656476744e-11</v>
+        <v>-3.971714291221025e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.280850259347789e-11</v>
+        <v>2.413064942345822e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.925039342768624e-11</v>
+        <v>-7.680971171391838e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.796865978439364e-11</v>
+        <v>-7.353491277448194e-11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.065409466939222e-11</v>
+        <v>-1.487857951730158e-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.233406352525239e-11</v>
+        <v>3.043386534459807e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.956821622306121e-11</v>
+        <v>-2.262987146052962e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.952920246464982e-11</v>
+        <v>1.531854099829501e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.152219378329286e-11</v>
+        <v>6.404257728200387e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.851129501720037e-11</v>
+        <v>5.957006752350882e-11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.03782654009122e-11</v>
+        <v>-2.298198379579259e-11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.009379911563111e-11</v>
+        <v>-3.640016228211688e-10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.752142897028189e-11</v>
+        <v>7.959910265370153e-11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.079133484007204e-11</v>
+        <v>-3.119294013930796e-10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.232863674552383e-11</v>
+        <v>-2.972885756487738e-11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.943510873239594e-11</v>
+        <v>3.340822631631607e-10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.092658596539043e-11</v>
+        <v>6.722661027974507e-11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.000505561445048e-11</v>
+        <v>-5.456691193823013e-11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.302818150261183e-11</v>
+        <v>2.911596622540534e-10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.040410055920925e-11</v>
+        <v>2.697530165925332e-10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.246063164367544e-11</v>
+        <v>1.310670405887128e-10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.882984327588315e-11</v>
+        <v>-1.036581599529772e-10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.604921441983852e-11</v>
+        <v>-6.666550540485715e-11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.131606938771072e-11</v>
+        <v>1.063270256016069e-10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.818536848871277e-11</v>
+        <v>1.075840134130641e-10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.127124881446646e-11</v>
+        <v>-1.747588595114534e-10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.88493894616224e-11</v>
+        <v>-4.346401179210398e-10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.903314724497645e-11</v>
+        <v>-3.223526817556533e-10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.254773996817246e-11</v>
+        <v>5.707597279153441e-11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.259113162080423e-11</v>
+        <v>1.543827836051317e-10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.101149548576557e-11</v>
+        <v>-5.831366345815336e-11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.273293739920554e-11</v>
+        <v>1.319157783488251e-10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.00532163879699e-11</v>
+        <v>-1.745414028618824e-10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.107742210855092e-11</v>
+        <v>7.214758172345075e-12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.255203623307892e-11</v>
+        <v>3.278303731550361e-10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.128644704524371e-11</v>
+        <v>1.316051557610319e-10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.055464022436164e-11</v>
+        <v>2.560143862543692e-10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.06319160011372e-11</v>
+        <v>-7.76509946630798e-11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.046582255760695e-11</v>
+        <v>7.016174477223482e-11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.582655183281102e-11</v>
+        <v>-1.890176975871106e-10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.277787839839238e-11</v>
+        <v>5.082007020556275e-11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.828361959251163e-11</v>
+        <v>2.34977485089106e-10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.99000096226874e-11</v>
+        <v>-2.776439572015197e-10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.171728223845935e-11</v>
+        <v>6.756581314681859e-10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.149327046087427e-11</v>
+        <v>-3.219622382306589e-10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.229983433175391e-11</v>
+        <v>-2.191548695429174e-10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.522622712545314e-11</v>
+        <v>-3.147478321277276e-11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.200557644437576e-11</v>
+        <v>-3.492194143250027e-10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.464830760957951e-11</v>
+        <v>1.690517288607006e-10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.165419708871213e-11</v>
+        <v>4.265314382323435e-11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.251798202712901e-11</v>
+        <v>2.760873781387019e-10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.997083947768596e-11</v>
+        <v>-4.139666799389799e-10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.910423270603628e-11</v>
+        <v>-1.650058335921193e-10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.892144924021489e-11</v>
+        <v>1.900734714789094e-10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.91316347820846e-11</v>
+        <v>1.504251388393799e-10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.400796194181939e-11</v>
+        <v>-2.904709038319012e-10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.336476304101338e-11</v>
+        <v>1.235078584602837e-10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.998751698964445e-11</v>
+        <v>2.99663702389235e-10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.489208369228993e-11</v>
+        <v>2.021306034645636e-10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.03966783695336e-11</v>
+        <v>4.643493584164197e-10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.22952933567186e-11</v>
+        <v>-1.941461973952135e-11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.173595012791044e-11</v>
+        <v>-3.031226028246835e-10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.548269086455619e-11</v>
+        <v>4.483304728447816e-10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.257020799531812e-11</v>
+        <v>3.139898070369347e-10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.790595359057387e-11</v>
+        <v>2.87461159421457e-10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.504985596776373e-11</v>
+        <v>2.073741791642912e-10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.935602702082947e-11</v>
+        <v>5.010222743025328e-10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.063351810842963e-11</v>
+        <v>-6.305056551018089e-10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.103654186390417e-11</v>
+        <v>5.393197909658243e-10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.950394197632129e-11</v>
+        <v>-5.377476185353088e-10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.590311340007717e-11</v>
+        <v>5.020337480579946e-10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.794846369483165e-11</v>
+        <v>1.378912376728346e-10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.996767277386417e-11</v>
+        <v>-2.976641988088723e-10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5.426663402020586e-11</v>
+        <v>-4.814757721110462e-10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.998513134866658e-11</v>
+        <v>1.995036530076864e-10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.937356661390726e-11</v>
+        <v>2.370535018729985e-10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4.919007196569899e-11</v>
+        <v>3.67241639665281e-10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.96757565993449e-11</v>
+        <v>-2.297094511634665e-10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5.079897381533377e-11</v>
+        <v>-1.328505560034868e-10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5.133339176227491e-11</v>
+        <v>7.102423509352377e-10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.363903507155799e-11</v>
+        <v>3.897514254185025e-11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4.495970713494307e-11</v>
+        <v>9.242359435653658e-11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5.388094007922459e-11</v>
+        <v>2.609994684633444e-10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5.368545227980075e-11</v>
+        <v>5.26788432008864e-11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5.252860018234368e-11</v>
+        <v>9.798349131983025e-11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4.930626216961418e-11</v>
+        <v>7.033616628913704e-10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.246534098328355e-11</v>
+        <v>1.287003940227509e-10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5.204758608763969e-11</v>
+        <v>-2.903875913123617e-10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5.544008291541833e-11</v>
+        <v>-2.088159633607936e-10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5.062330529293504e-11</v>
+        <v>4.286258673043346e-10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5.130868357983463e-11</v>
+        <v>1.198609795498248e-10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.012820701366943e-11</v>
+        <v>9.842603556011413e-11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5.11301946572933e-11</v>
+        <v>1.727481742458736e-11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5.390112409407681e-11</v>
+        <v>1.766577326298268e-10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5.012260157101551e-11</v>
+        <v>5.421056833550435e-10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.569976938258644e-11</v>
+        <v>2.095711000940602e-10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.472425991050013e-11</v>
+        <v>2.788457322780725e-10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5.217912480707611e-11</v>
+        <v>4.421883370269492e-10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5.150357049765438e-11</v>
+        <v>1.518760411485575e-10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4.725917419431664e-11</v>
+        <v>3.848923978922515e-10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.350375506523676e-11</v>
+        <v>2.477175513642799e-10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5.140419123484249e-11</v>
+        <v>-2.481204118145272e-10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5.004642303583554e-11</v>
+        <v>-2.057055139571979e-10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4.838875160258846e-11</v>
+        <v>-1.012001591797686e-10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5.344695750096317e-11</v>
+        <v>1.534974122666237e-10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4.948219795835842e-11</v>
+        <v>1.354230237941248e-10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5.114820621180537e-11</v>
+        <v>-7.350090452245529e-10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5.443913478552735e-11</v>
+        <v>5.103520421821325e-10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4.843624805149391e-11</v>
+        <v>-1.236511462702722e-10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5.124836095663194e-11</v>
+        <v>-4.048588898312424e-11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.39865745778553e-11</v>
+        <v>-3.659159775769958e-10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5.008395085004338e-11</v>
+        <v>1.655301512570707e-10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5.653523764240263e-11</v>
+        <v>1.210364722922777e-10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5.069611860681327e-11</v>
+        <v>2.800954965580396e-10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5.0180266140576e-11</v>
+        <v>3.898898427276386e-10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.87627886760477e-11</v>
+        <v>-5.40778154827543e-10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5.090329859409066e-11</v>
+        <v>-1.639010600444292e-10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4.967035656192756e-11</v>
+        <v>-3.870781106435312e-10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5.125515860661442e-11</v>
+        <v>2.063646812016127e-10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.895065961404554e-11</v>
+        <v>6.618601057919569e-12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5.034630748235196e-11</v>
+        <v>-1.959964047809431e-10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5.349497103487086e-11</v>
+        <v>6.108925194929286e-11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4.950206037477052e-11</v>
+        <v>-5.838067164363967e-11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5.090639139727186e-11</v>
+        <v>-6.121311617819133e-11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5.298024349246311e-11</v>
+        <v>3.828199154795762e-10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.922728134626283e-11</v>
+        <v>-1.114435207022142e-10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5.089737676836866e-11</v>
+        <v>-4.108817234024986e-10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5.098088347609046e-11</v>
+        <v>-2.879513173066372e-10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5.066580304573785e-11</v>
+        <v>3.732830417168653e-10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4.706559842910926e-11</v>
+        <v>2.978338414297842e-10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4.777527612890841e-11</v>
+        <v>2.023660530462334e-10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4.77170848426703e-11</v>
+        <v>-3.391466890189714e-10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4.952936268321282e-11</v>
+        <v>2.467848313078667e-11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4.789353466754767e-11</v>
+        <v>3.406014518192619e-10</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4.633149941186655e-11</v>
+        <v>2.035019899423024e-10</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5.151181854687221e-11</v>
+        <v>-2.705063905634731e-10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4.848504148800491e-11</v>
+        <v>3.180027706803069e-11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.029352294847363e-11</v>
+        <v>1.242827151122976e-10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4.877186833960976e-11</v>
+        <v>3.322418607096701e-10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>4.966775704751348e-11</v>
+        <v>-1.448661019262939e-10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5.080357031152383e-11</v>
+        <v>1.445913600022985e-10</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4.652795992261183e-11</v>
+        <v>-2.152878653356046e-10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>4.679413981073112e-11</v>
+        <v>-1.20709409613685e-10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>4.980678912633053e-11</v>
+        <v>-4.014958582278102e-10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5.248371372181099e-11</v>
+        <v>-4.261830271036067e-11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4.931158838690413e-11</v>
+        <v>-1.774544510055555e-10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4.784719849217685e-11</v>
+        <v>-2.373240589937431e-10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>5.453888648739217e-11</v>
+        <v>1.79686825224443e-10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4.904789339641466e-11</v>
+        <v>-4.847894376505529e-10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5.102985991579034e-11</v>
+        <v>-9.264675576357027e-11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5.366493404152519e-11</v>
+        <v>3.940795224182022e-10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5.407359649330031e-11</v>
+        <v>2.83229484973078e-11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>4.703344864338706e-11</v>
+        <v>-4.888662202252924e-10</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5.020236139283267e-11</v>
+        <v>4.913772022940084e-11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4.785075257668844e-11</v>
+        <v>2.791902569125856e-10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5.178829690268392e-11</v>
+        <v>3.271531104748172e-10</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5.278774931175364e-11</v>
+        <v>2.531305520783503e-11</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4.904540081252284e-11</v>
+        <v>-4.959568753855337e-12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5.302779274253155e-11</v>
+        <v>-9.860247173185281e-12</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5.555103759580943e-11</v>
+        <v>4.123397137682974e-10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>5.043859200134578e-11</v>
+        <v>-3.828714249515894e-10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>5.318218872379686e-11</v>
+        <v>2.682505771699446e-10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>4.832694844306716e-11</v>
+        <v>-6.863266117367189e-11</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>5.277811379254633e-11</v>
+        <v>-3.027622319146921e-10</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5.329274422548744e-11</v>
+        <v>2.753060473124179e-11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>4.459379950733763e-11</v>
+        <v>3.125535972243153e-10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5.134462220761856e-11</v>
+        <v>2.205633972698559e-11</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>5.398518675814266e-11</v>
+        <v>-1.271236978754111e-10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5.055169714703294e-11</v>
+        <v>-8.178086156625568e-10</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5.030348314946459e-11</v>
+        <v>6.862326373942498e-10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4.848864096199602e-11</v>
+        <v>1.981341433703688e-10</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>5.074197111086108e-11</v>
+        <v>2.22646075207527e-10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>5.333328175901018e-11</v>
+        <v>1.606412131706247e-10</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5.24492311409951e-11</v>
+        <v>-7.126408722428849e-11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4.85510023213543e-11</v>
+        <v>-1.178319243362761e-10</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>5.105498173103707e-11</v>
+        <v>1.232286630051534e-10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>5.201707047041213e-11</v>
+        <v>-6.239131079773484e-10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>4.961475928327182e-11</v>
+        <v>-3.927587622630327e-10</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>4.771880109229163e-11</v>
+        <v>-2.315385209815513e-10</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5.201493742089629e-11</v>
+        <v>-2.441982363065205e-11</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>5.269309011564996e-11</v>
+        <v>-6.57112157996242e-11</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>4.909998168679478e-11</v>
+        <v>5.550781154994496e-10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>5.088520229278997e-11</v>
+        <v>-6.028682476948017e-11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>4.974036837143809e-11</v>
+        <v>3.305259332393297e-10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>5.249159683922307e-11</v>
+        <v>9.564741061119612e-11</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>5.060552394116502e-11</v>
+        <v>1.861648261053965e-10</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>5.196240526346518e-11</v>
+        <v>3.751430829412379e-10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5.021455649478705e-11</v>
+        <v>3.253537220821527e-10</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.029739435955447e-11</v>
+        <v>-7.172022060574723e-11</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>5.098178328996985e-11</v>
+        <v>-3.711082782505093e-10</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>5.255072685219904e-11</v>
+        <v>4.663706588928917e-11</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>5.003606686545748e-11</v>
+        <v>2.594709382108919e-11</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>5.182513027812915e-11</v>
+        <v>-1.207289903907492e-11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5.044489064837461e-11</v>
+        <v>-9.284688027775472e-11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>4.868043036966008e-11</v>
+        <v>-3.201070098855887e-10</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>5.3626202693519e-11</v>
+        <v>-3.299904115380282e-10</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>4.825752484495404e-11</v>
+        <v>1.899697754139362e-10</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>4.853197723800202e-11</v>
+        <v>6.275995393755963e-10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>4.980349762394638e-11</v>
+        <v>3.070756981048896e-10</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>5.021737733874453e-11</v>
+        <v>1.308350790530018e-10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>4.500174386344504e-11</v>
+        <v>-1.436367479971951e-10</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>5.210494444715681e-11</v>
+        <v>4.380035054383185e-10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>5.114049002119251e-11</v>
+        <v>1.448846500775339e-11</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>5.303163897866401e-11</v>
+        <v>-1.204792830708811e-10</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>4.794440095565935e-11</v>
+        <v>7.209671052874365e-11</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>4.842721650602228e-11</v>
+        <v>2.448042380031868e-10</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>5.435305608093051e-11</v>
+        <v>2.34233843001575e-10</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>4.815508892546859e-11</v>
+        <v>-1.320001977001964e-11</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>4.994868458536987e-11</v>
+        <v>-3.640447155944127e-10</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>4.925757244132742e-11</v>
+        <v>-1.759111842817171e-10</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>5.021335407950891e-11</v>
+        <v>6.215843856612379e-10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>4.744325074590778e-11</v>
+        <v>-1.116480467134883e-10</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>4.811134117235316e-11</v>
+        <v>3.164931106842087e-10</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>4.775862096599944e-11</v>
+        <v>-4.136781023386302e-10</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>4.897962508155128e-11</v>
+        <v>7.885538168885406e-11</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>5.048918308172683e-11</v>
+        <v>6.395799808306546e-11</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>5.298138909467665e-11</v>
+        <v>3.041788521530359e-10</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>5.13689889506793e-11</v>
+        <v>4.492659351029818e-10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>5.229463085822001e-11</v>
+        <v>5.628557352407343e-10</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>5.381663986993669e-11</v>
+        <v>4.019308435090364e-10</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>5.238598774032194e-11</v>
+        <v>3.287769374582357e-10</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>4.825725063140181e-11</v>
+        <v>1.982923953023104e-10</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>5.020995657881723e-11</v>
+        <v>1.626138077283763e-10</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>5.014842683643278e-11</v>
+        <v>2.971233640638588e-10</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>4.81872832947028e-11</v>
+        <v>-1.402157111155734e-11</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>4.871446457842099e-11</v>
+        <v>-2.851920940452446e-10</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>4.782871939367495e-11</v>
+        <v>1.56151783714604e-10</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>5.138350735028863e-11</v>
+        <v>-1.104152284756285e-10</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>5.406653488993065e-11</v>
+        <v>-2.142317424437222e-10</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>5.070919622560134e-11</v>
+        <v>-2.936603341030303e-10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>5.094310447103712e-11</v>
+        <v>-3.431137097249225e-10</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>4.822137537082396e-11</v>
+        <v>-1.291599373442121e-10</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>5.393250303070001e-11</v>
+        <v>-1.659819940422491e-10</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>4.993570540465535e-11</v>
+        <v>-4.039887447056937e-10</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>5.079306873954335e-11</v>
+        <v>5.349269352547981e-10</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>4.984960173756155e-11</v>
+        <v>1.79473632010695e-10</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>5.35303608478883e-11</v>
+        <v>-5.751143742158262e-11</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>5.134392907219133e-11</v>
+        <v>1.871388091588982e-10</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>4.832807441066179e-11</v>
+        <v>8.298110482199552e-11</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>5.444103984845516e-11</v>
+        <v>6.976136589856401e-10</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>5.372659871323612e-11</v>
+        <v>8.224228648651575e-13</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>4.811003387233253e-11</v>
+        <v>-1.638192632470265e-10</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>4.847265754789289e-11</v>
+        <v>-1.798192271758956e-10</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>5.273516089565471e-11</v>
+        <v>-2.802069885603176e-10</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>4.901231893828085e-11</v>
+        <v>-3.490244414119645e-10</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>5.26855190303837e-11</v>
+        <v>-2.106249106688078e-10</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>4.780081577280261e-11</v>
+        <v>-4.414064782568467e-10</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>5.310337116445685e-11</v>
+        <v>-2.486694978645004e-10</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>5.264105337928893e-11</v>
+        <v>2.521327062428944e-10</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>5.5752303776145e-11</v>
+        <v>-3.778548025442819e-10</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>5.297967424470904e-11</v>
+        <v>-2.680037909675545e-10</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>4.798400444560361e-11</v>
+        <v>6.235692780438238e-10</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>4.626241408132293e-11</v>
+        <v>-1.615581831759969e-10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>5.059453324762189e-11</v>
+        <v>2.860381918231314e-11</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>5.243080508952936e-11</v>
+        <v>-5.154913635759642e-11</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>5.090517769878779e-11</v>
+        <v>5.198285757507418e-10</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>5.069962363081036e-11</v>
+        <v>-5.091814816628705e-11</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>4.936184153004907e-11</v>
+        <v>-1.205773397283779e-10</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>5.09473765092824e-11</v>
+        <v>1.662182259294553e-10</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>4.713519217237481e-11</v>
+        <v>-2.4010984899765e-10</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>5.011768567311582e-11</v>
+        <v>4.535728502833721e-11</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>5.040974701388078e-11</v>
+        <v>-2.527843032979254e-10</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>4.784337616461738e-11</v>
+        <v>-5.444099363035797e-11</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>5.293013321054093e-11</v>
+        <v>7.044515316526589e-11</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>4.982404022763854e-11</v>
+        <v>-5.206478024205992e-11</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>5.047372942993922e-11</v>
+        <v>9.66483745101565e-11</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>4.449256721451956e-11</v>
+        <v>-2.152042509920836e-10</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>4.861716739482487e-11</v>
+        <v>3.498400700410278e-11</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>5.204857353435665e-11</v>
+        <v>-2.102538721416828e-10</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>4.92555313659109e-11</v>
+        <v>2.006855938758631e-10</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>5.311380681986066e-11</v>
+        <v>2.185156229778121e-10</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>5.04729664504935e-11</v>
+        <v>-7.871724971167949e-10</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>4.624043194409165e-11</v>
+        <v>6.117497652932289e-11</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>4.676017881105215e-11</v>
+        <v>-5.995695186211793e-10</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>5.070407367160038e-11</v>
+        <v>-2.749226491705364e-11</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>4.855822263936974e-11</v>
+        <v>9.009476411631937e-13</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>5.234369775587987e-11</v>
+        <v>1.68906872482853e-10</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>5.360365026065579e-11</v>
+        <v>2.099883323284377e-10</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>5.252913461015887e-11</v>
+        <v>-2.965894346060877e-10</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>4.989468334000126e-11</v>
+        <v>1.498334663330924e-10</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>4.915014920683546e-11</v>
+        <v>8.494856613775296e-11</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>5.105645055617826e-11</v>
+        <v>-5.893877258893053e-11</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>5.141382697641954e-11</v>
+        <v>1.268351746917174e-10</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>5.398014592348016e-11</v>
+        <v>-1.17336002132139e-10</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>5.230646252695718e-11</v>
+        <v>-4.509854830617182e-12</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>5.102576410809706e-11</v>
+        <v>-4.519410632970532e-10</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>5.09449797021064e-11</v>
+        <v>-2.857062276791409e-10</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>4.806611358288485e-11</v>
+        <v>4.465712049692584e-10</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>4.991003529286396e-11</v>
+        <v>-5.121613401794964e-10</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>4.837308441500225e-11</v>
+        <v>2.610240188349341e-10</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>4.660782584090683e-11</v>
+        <v>4.959897501847978e-10</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>5.096350269855841e-11</v>
+        <v>-4.95158264034641e-11</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>5.241527537703978e-11</v>
+        <v>2.415048162373796e-10</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>5.306778698051414e-11</v>
+        <v>-3.594372403084089e-10</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>5.183209216299468e-11</v>
+        <v>2.502611711412838e-10</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>5.021848589819052e-11</v>
+        <v>2.088144391915931e-10</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>4.931394466496858e-11</v>
+        <v>-8.678550704133255e-11</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>5.050703080369111e-11</v>
+        <v>-1.960094079628327e-10</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>5.090979059333278e-11</v>
+        <v>-8.245656707536561e-11</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>4.940651909100049e-11</v>
+        <v>3.429350201519845e-10</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>4.645683486782377e-11</v>
+        <v>-4.700960637995825e-11</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>5.227087955309013e-11</v>
+        <v>3.974595762337776e-10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>4.825895866836184e-11</v>
+        <v>-3.206698184850803e-10</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>4.84895047835891e-11</v>
+        <v>3.674343293398587e-10</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>5.040672350383672e-11</v>
+        <v>-1.75972088936476e-10</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>4.877742831314644e-11</v>
+        <v>1.964758739744827e-10</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>5.069967061208537e-11</v>
+        <v>-1.271570162873799e-10</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>5.203857215389011e-11</v>
+        <v>-3.660348143977549e-10</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>4.613146783105509e-11</v>
+        <v>-5.196526448160403e-10</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>4.656651141523879e-11</v>
+        <v>-4.446596863908939e-10</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>4.871234502324228e-11</v>
+        <v>-1.259956227911857e-10</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5.078783579479935e-11</v>
+        <v>1.930426315464206e-10</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5.215278084008418e-11</v>
+        <v>2.765405307126324e-11</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>5.113005218684362e-11</v>
+        <v>2.011447518045354e-10</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5.168414040811184e-11</v>
+        <v>3.785770920052864e-10</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>4.604056215632115e-11</v>
+        <v>-1.163378939480289e-10</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5.133559134512308e-11</v>
+        <v>-8.13932452474932e-10</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4.785784123076677e-11</v>
+        <v>9.380689093823891e-10</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>5.155374113001395e-11</v>
+        <v>3.364368577867545e-10</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5.385419006017033e-11</v>
+        <v>-2.506257269213814e-10</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5.041966368470991e-11</v>
+        <v>1.294900752110827e-10</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5.181143707529799e-11</v>
+        <v>2.309038613628883e-10</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5.036171148095803e-11</v>
+        <v>2.368754444637342e-11</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5.232377832708658e-11</v>
+        <v>-4.977130579546189e-10</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4.989817752441785e-11</v>
+        <v>-2.637782308996982e-10</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>5.043828349129038e-11</v>
+        <v>-1.413540856644083e-10</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5.109960335816174e-11</v>
+        <v>1.464483983721698e-10</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5.018532381482832e-11</v>
+        <v>8.93726982208279e-11</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5.382491020779481e-11</v>
+        <v>-2.145741687144881e-10</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>4.982707896397408e-11</v>
+        <v>-4.744167491279535e-10</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5.207855963320097e-11</v>
+        <v>-1.790233751763098e-10</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>5.046322785995662e-11</v>
+        <v>5.388358850867699e-11</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4.675738172839702e-11</v>
+        <v>-3.081234956231663e-10</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>5.271951089964596e-11</v>
+        <v>1.077344385096059e-11</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4.877328923828777e-11</v>
+        <v>2.382919711773554e-10</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>4.961458839844994e-11</v>
+        <v>-2.43257644158806e-10</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>4.907959986549115e-11</v>
+        <v>-5.230387510730137e-11</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>4.99792234834211e-11</v>
+        <v>-5.184620921004838e-10</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>4.821670743967516e-11</v>
+        <v>1.473324541245541e-10</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>5.023993063814013e-11</v>
+        <v>1.167090356417383e-10</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>4.918819786951425e-11</v>
+        <v>2.543013368564027e-10</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>5.196166898395966e-11</v>
+        <v>-3.173343501822575e-10</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>5.388616554760357e-11</v>
+        <v>-7.287548310185761e-11</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>5.32662463897756e-11</v>
+        <v>5.553367322339953e-11</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>4.945896634543852e-11</v>
+        <v>-1.7825500741606e-10</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>5.434579225772104e-11</v>
+        <v>-3.433237529243575e-10</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>4.973284919435541e-11</v>
+        <v>2.571980844104194e-10</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>5.265804997018267e-11</v>
+        <v>7.05562329701023e-11</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>5.049413954610135e-11</v>
+        <v>5.1158242325151e-10</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>5.059348825416422e-11</v>
+        <v>-2.91824952971964e-10</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>4.862577577600142e-11</v>
+        <v>2.448357791773345e-10</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>4.876513025772408e-11</v>
+        <v>9.28359283233494e-11</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>5.200123445099282e-11</v>
+        <v>6.869153866036919e-11</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>5.382431659583739e-11</v>
+        <v>9.466298667023117e-11</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>5.399084166401167e-11</v>
+        <v>2.002876237057182e-10</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>5.37544869891135e-11</v>
+        <v>8.696929422064634e-11</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>4.780157972933244e-11</v>
+        <v>-1.713942153716293e-10</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>4.820590486995841e-11</v>
+        <v>4.755795020569233e-10</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>5.099841183622539e-11</v>
+        <v>4.769076303163336e-10</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>5.236053355085464e-11</v>
+        <v>7.338149824361798e-10</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>4.899809336040479e-11</v>
+        <v>-3.463444470308007e-10</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>4.764676228901569e-11</v>
+        <v>-1.183634154183516e-12</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>5.123977167196737e-11</v>
+        <v>-4.216936105937125e-10</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>5.204505249499209e-11</v>
+        <v>1.529529805888182e-10</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>5.001769485303934e-11</v>
+        <v>-3.826801007579853e-11</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>4.970725091089815e-11</v>
+        <v>-3.857945306370595e-10</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>5.281936351664255e-11</v>
+        <v>-4.360397442260606e-10</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>4.971361469668709e-11</v>
+        <v>1.984795155945145e-10</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>5.225821964597955e-11</v>
+        <v>1.757485385958656e-10</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>5.144494555431564e-11</v>
+        <v>-4.909199963996669e-10</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>5.306444580685942e-11</v>
+        <v>-1.067999177093429e-10</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>5.167784924016251e-11</v>
+        <v>1.793526502667125e-10</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>5.076524310638078e-11</v>
+        <v>1.333779312128941e-10</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>5.025940795842707e-11</v>
+        <v>2.794051961623559e-10</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>5.088704118002726e-11</v>
+        <v>-1.442243217766067e-10</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>5.136077988051416e-11</v>
+        <v>4.147011739207962e-10</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>5.285801048378551e-11</v>
+        <v>4.499227866057168e-10</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>5.211081656885001e-11</v>
+        <v>-3.002040846660637e-10</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>5.231935634293298e-11</v>
+        <v>-2.423282411371151e-10</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>5.200233336248855e-11</v>
+        <v>-1.314227301029978e-10</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>4.878815226578646e-11</v>
+        <v>-3.766553940059496e-10</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>5.450833655560804e-11</v>
+        <v>-1.881903503958565e-10</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>5.108298413149711e-11</v>
+        <v>1.294086915645645e-10</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>5.081146537817741e-11</v>
+        <v>-2.964972796595098e-10</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>5.123487517301136e-11</v>
+        <v>7.119297274418038e-10</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>5.247674265882597e-11</v>
+        <v>-3.629586568912822e-10</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>4.799299534698149e-11</v>
+        <v>-2.179068990312713e-10</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>5.023458072265259e-11</v>
+        <v>-2.028219709171649e-10</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>5.384233468128252e-11</v>
+        <v>-2.170825925157946e-10</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>4.709867511894672e-11</v>
+        <v>-4.230559794819996e-10</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>5.385601029639108e-11</v>
+        <v>-8.244695648881501e-11</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>4.901120711463775e-11</v>
+        <v>-3.08856550681754e-10</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>5.252264257913846e-11</v>
+        <v>1.168956321910072e-10</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>5.11282105437328e-11</v>
+        <v>-1.724888005508119e-10</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>4.794830648188018e-11</v>
+        <v>5.472433998127513e-11</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>5.209228181529601e-11</v>
+        <v>4.277647189099447e-10</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>4.852699763098883e-11</v>
+        <v>-9.070534536098542e-11</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>4.88361658058622e-11</v>
+        <v>-1.44720043604145e-10</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>5.007556714993785e-11</v>
+        <v>-1.753903949340465e-11</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>4.807680079668407e-11</v>
+        <v>-3.140788401982415e-10</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>4.812539219131068e-11</v>
+        <v>-3.40410670028086e-10</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>4.94917252646241e-11</v>
+        <v>-1.349630482004295e-10</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>4.923932426338403e-11</v>
+        <v>-3.91451335082974e-11</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>4.770837261862082e-11</v>
+        <v>2.086000499106081e-10</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>5.057077201354411e-11</v>
+        <v>3.673850257476141e-10</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>4.956049116733444e-11</v>
+        <v>-4.303632759078785e-10</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>4.895507379743844e-11</v>
+        <v>1.699658246685e-10</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>4.887916640896873e-11</v>
+        <v>6.678232191175134e-11</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>5.06909291775765e-11</v>
+        <v>5.070744127626733e-10</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>5.026349051882952e-11</v>
+        <v>1.626494187479462e-10</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>4.861789127533287e-11</v>
+        <v>9.095522834816177e-11</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>4.796114939633563e-11</v>
+        <v>3.119845501786341e-10</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>5.140183951260777e-11</v>
+        <v>4.493696452353809e-10</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>5.060296934892683e-11</v>
+        <v>3.451360061447508e-11</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>4.736850771075658e-11</v>
+        <v>6.157900519554725e-11</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>4.768008287747514e-11</v>
+        <v>-1.80107295757024e-10</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>4.937621578574547e-11</v>
+        <v>1.850261584031661e-10</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>5.144558180416782e-11</v>
+        <v>4.522043024593501e-10</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>4.831090812274593e-11</v>
+        <v>-1.685989035028068e-10</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>5.223018498743761e-11</v>
+        <v>8.063650891436201e-12</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>5.122495029446191e-11</v>
+        <v>-3.251194631541405e-10</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>4.87179965152498e-11</v>
+        <v>4.521216658737088e-10</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>5.463278336677796e-11</v>
+        <v>2.139899987271777e-10</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>4.819641918909452e-11</v>
+        <v>-2.404614212090735e-10</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>5.239140642926306e-11</v>
+        <v>1.114202177263751e-10</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>4.984608323320402e-11</v>
+        <v>-2.165635862603892e-10</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>4.89826454270621e-11</v>
+        <v>-2.245527370937086e-10</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>4.672375054380585e-11</v>
+        <v>-1.506889967900564e-10</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>5.065757495464899e-11</v>
+        <v>3.289005332173243e-10</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>5.213447935671444e-11</v>
+        <v>2.51117934836742e-10</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>5.125487682751656e-11</v>
+        <v>-1.922469353214797e-10</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>5.050357749711789e-11</v>
+        <v>-7.879128888682137e-11</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>4.681605763010577e-11</v>
+        <v>-2.67721617985428e-11</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>5.049435342502206e-11</v>
+        <v>2.301502095117973e-10</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>5.076450507377701e-11</v>
+        <v>-3.759636980391084e-10</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>5.068354164834387e-11</v>
+        <v>1.918963341236246e-10</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>4.781271135730516e-11</v>
+        <v>-1.313193246062055e-10</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>4.968300735051959e-11</v>
+        <v>1.295520392432317e-10</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>5.147841742418956e-11</v>
+        <v>1.595205219556342e-11</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>5.215265299541763e-11</v>
+        <v>-2.951336914815067e-11</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>4.963244495443155e-11</v>
+        <v>-2.794901741611642e-10</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>5.01407045844611e-11</v>
+        <v>-2.289860952017225e-10</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>5.026969086643853e-11</v>
+        <v>-1.465209713188945e-10</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>4.830330073941726e-11</v>
+        <v>6.329918631608882e-10</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>5.041242439352773e-11</v>
+        <v>-6.326505281280243e-10</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>5.206648293002793e-11</v>
+        <v>2.08987234147495e-10</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>4.903837058043579e-11</v>
+        <v>-3.950750436667123e-10</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>5.284322450667054e-11</v>
+        <v>4.1919330493063e-10</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>5.352681519643261e-11</v>
+        <v>-3.895581067415605e-10</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>5.283252758813489e-11</v>
+        <v>3.629989323542206e-11</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>5.204271156505657e-11</v>
+        <v>-3.041243206535165e-10</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>5.01344662152929e-11</v>
+        <v>2.062712088420563e-10</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>4.820347278928885e-11</v>
+        <v>1.415440021915261e-10</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>5.021352657127727e-11</v>
+        <v>3.266333560454936e-10</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>5.151170502840968e-11</v>
+        <v>4.921693039592376e-10</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>4.801163108207797e-11</v>
+        <v>8.667674923163533e-11</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>5.41857568092828e-11</v>
+        <v>3.235846041402452e-10</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>5.202667277253536e-11</v>
+        <v>4.181705826952689e-10</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>4.92465923103518e-11</v>
+        <v>-2.896149073432555e-10</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>4.903532957647256e-11</v>
+        <v>9.219063182460272e-11</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>5.006054652022871e-11</v>
+        <v>-2.499160859482402e-10</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>5.156507704264441e-11</v>
+        <v>3.959654486020596e-10</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>5.178027051680872e-11</v>
+        <v>7.277244973846363e-10</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>5.025155975952167e-11</v>
+        <v>2.007826982317471e-11</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>4.941687571991614e-11</v>
+        <v>-5.512277050983295e-11</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>5.057376744128588e-11</v>
+        <v>-1.493601696307552e-10</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>5.071985884413413e-11</v>
+        <v>4.898699397091894e-11</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>5.179642193627119e-11</v>
+        <v>1.580603118988462e-10</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>5.239561915605793e-11</v>
+        <v>1.991917924220138e-11</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>5.020025902845193e-11</v>
+        <v>1.026993871930234e-10</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>4.906194251470517e-11</v>
+        <v>-1.400404101840783e-10</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>5.449944736159008e-11</v>
+        <v>1.529572021174699e-10</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>4.800662253439829e-11</v>
+        <v>8.719046673409196e-11</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>4.926890874567639e-11</v>
+        <v>-2.881630063897901e-11</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>5.075241335165418e-11</v>
+        <v>-8.393923434237883e-10</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>4.937191872519562e-11</v>
+        <v>1.75411706316751e-11</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>4.808109832683631e-11</v>
+        <v>3.857933716711579e-10</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>4.994865853603515e-11</v>
+        <v>-1.319297591967369e-10</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>4.885417187802547e-11</v>
+        <v>-5.553218075996332e-11</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>5.146089120050711e-11</v>
+        <v>7.663321489838901e-10</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>5.158212837064502e-11</v>
+        <v>9.813594968685576e-11</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>4.890589457321316e-11</v>
+        <v>-7.716807139427443e-11</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>5.305826404583612e-11</v>
+        <v>1.010315327979354e-10</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>4.97274367892079e-11</v>
+        <v>3.877523449304593e-10</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>5.30932789551148e-11</v>
+        <v>-3.591245072024406e-10</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>4.93006651418779e-11</v>
+        <v>-7.163906712176296e-11</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>5.019704307225077e-11</v>
+        <v>-3.145012437703115e-10</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>5.121267143742138e-11</v>
+        <v>-1.195646921777473e-10</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>5.171461541737095e-11</v>
+        <v>9.037276282540626e-11</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>4.941662732847606e-11</v>
+        <v>-2.09285735234037e-10</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>5.221844715270699e-11</v>
+        <v>9.62612200084069e-11</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>4.96228859559361e-11</v>
+        <v>-8.734950782780579e-10</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>4.735919476615191e-11</v>
+        <v>-2.271330292637535e-11</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>5.198049961113851e-11</v>
+        <v>1.605934536497853e-10</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>4.796086881296361e-11</v>
+        <v>4.840608556535337e-11</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>5.247014014750118e-11</v>
+        <v>5.18374717853144e-10</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>5.114270438653132e-11</v>
+        <v>-3.341436956124282e-10</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>5.268750196302508e-11</v>
+        <v>1.783426768417162e-11</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>5.118581483017421e-11</v>
+        <v>-1.644485428111899e-10</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>5.285134736544355e-11</v>
+        <v>2.382792646467027e-10</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>4.866354983633808e-11</v>
+        <v>3.998403188063488e-10</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>5.151738741127742e-11</v>
+        <v>1.147718783628968e-10</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>5.040323231020758e-11</v>
+        <v>-1.070964801020826e-10</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>5.054617332988991e-11</v>
+        <v>-8.543708759280804e-11</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>4.776724219510542e-11</v>
+        <v>7.537255948775034e-11</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>4.931137908652763e-11</v>
+        <v>4.440763528611249e-11</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>4.97140625477518e-11</v>
+        <v>1.249317296788601e-10</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>4.999366852464096e-11</v>
+        <v>-2.205044734380286e-10</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>4.645945907354001e-11</v>
+        <v>5.794201677140617e-11</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>5.132395948469384e-11</v>
+        <v>-2.5759775393944e-10</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>5.204211201831612e-11</v>
+        <v>1.987275070509264e-11</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>5.115920784449181e-11</v>
+        <v>-8.782700986752798e-11</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>5.350444183695156e-11</v>
+        <v>6.24397976533394e-10</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>5.273832986014613e-11</v>
+        <v>-8.293677192222104e-11</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>4.970976154984481e-11</v>
+        <v>-8.69742708736489e-11</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>4.656530722728812e-11</v>
+        <v>-2.220594389751904e-10</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>4.932191369892271e-11</v>
+        <v>-4.009883481195118e-10</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>5.293634550932322e-11</v>
+        <v>-1.383801351351969e-10</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>5.486600278218382e-11</v>
+        <v>1.351918682137944e-10</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>4.936914011488608e-11</v>
+        <v>4.123196542445546e-10</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>5.36471591570505e-11</v>
+        <v>8.653235496372014e-11</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>5.181264118138851e-11</v>
+        <v>7.748505033546765e-11</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>4.785429582141843e-11</v>
+        <v>-4.61127646714785e-10</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>4.953553097818836e-11</v>
+        <v>-5.946253315411629e-10</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>4.716730234966074e-11</v>
+        <v>7.685096567127836e-10</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>5.43788876397895e-11</v>
+        <v>-1.604865818385265e-10</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>5.57423925786516e-11</v>
+        <v>-7.893039392770348e-11</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>5.022253272269877e-11</v>
+        <v>1.952859189073312e-10</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>4.984785287374671e-11</v>
+        <v>1.2783703753424e-10</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>5.167070051221074e-11</v>
+        <v>-1.439837928879433e-10</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>4.899797106087694e-11</v>
+        <v>-5.281151593395442e-10</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>5.193155826932213e-11</v>
+        <v>2.762923158100496e-10</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>4.959846997592118e-11</v>
+        <v>-8.808559442216171e-11</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>5.08312049025733e-11</v>
+        <v>2.375832020072468e-10</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>4.869075758501551e-11</v>
+        <v>-4.828584012776802e-11</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>5.061339113191162e-11</v>
+        <v>5.71842946667429e-11</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>4.89826579252271e-11</v>
+        <v>6.272924099397925e-12</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>4.859084834741568e-11</v>
+        <v>3.409098242567115e-10</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>5.016933647297736e-11</v>
+        <v>3.972496515933681e-11</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>5.210825504246458e-11</v>
+        <v>5.130056852903267e-10</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>5.083879035778784e-11</v>
+        <v>1.353449424654334e-10</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>5.233506909681646e-11</v>
+        <v>1.438683341240401e-11</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>5.118242441388209e-11</v>
+        <v>2.23795232036388e-11</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>5.162555938164833e-11</v>
+        <v>1.665177947164383e-10</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>4.881034599362731e-11</v>
+        <v>5.211697063749818e-10</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>5.030957215468292e-11</v>
+        <v>-8.110479263592712e-12</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>5.241845090152045e-11</v>
+        <v>-1.806619488517643e-10</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>4.949537233851176e-11</v>
+        <v>-3.073759621638281e-10</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>5.015831956815555e-11</v>
+        <v>-4.61876998264556e-11</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>5.358282318556948e-11</v>
+        <v>-9.138036740395238e-11</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>5.119183152877747e-11</v>
+        <v>3.323102771868736e-10</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>4.930508957455809e-11</v>
+        <v>6.831422261699144e-10</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>5.216268215300484e-11</v>
+        <v>-2.992207935971175e-10</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>4.692959604080053e-11</v>
+        <v>-1.657967643415571e-10</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>5.109061724926644e-11</v>
+        <v>-2.630739545956203e-10</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>5.238194747571503e-11</v>
+        <v>-2.546455608419842e-10</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>5.433742284665127e-11</v>
+        <v>-3.031326948442066e-10</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>5.302553470286489e-11</v>
+        <v>-3.638766143743298e-10</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>5.239324311060738e-11</v>
+        <v>-4.427874009813906e-11</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>5.41607171698649e-11</v>
+        <v>4.385356062544013e-10</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>5.109904643731309e-11</v>
+        <v>2.645032341177727e-10</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>5.267613515129941e-11</v>
+        <v>9.942467215323495e-11</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>4.889550064818101e-11</v>
+        <v>2.501107259714263e-11</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>4.956452968577732e-11</v>
+        <v>8.740875236488409e-11</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>5.109792390832663e-11</v>
+        <v>3.721964034627346e-10</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>5.453265877931747e-11</v>
+        <v>2.712127903355943e-10</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>5.065538591104236e-11</v>
+        <v>-2.410882883681311e-10</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>5.202558441339374e-11</v>
+        <v>-2.099649249683974e-10</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>5.293293054325085e-11</v>
+        <v>6.071455750155125e-11</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>5.05369670735594e-11</v>
+        <v>-1.629667811570649e-10</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>5.45667666434771e-11</v>
+        <v>1.779069728281161e-11</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>4.706271766134259e-11</v>
+        <v>4.480545237123709e-10</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>4.940168065459994e-11</v>
+        <v>5.49035089315301e-10</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>5.335056990434396e-11</v>
+        <v>-2.493616828412854e-10</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>5.141358714159557e-11</v>
+        <v>8.378562619779235e-11</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>5.064591597116666e-11</v>
+        <v>2.834787867570391e-10</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>4.855707589153897e-11</v>
+        <v>3.358392217995069e-10</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>4.905149357802384e-11</v>
+        <v>3.270868786186885e-10</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>4.863322144149665e-11</v>
+        <v>1.719637341230139e-10</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>4.524554569806639e-11</v>
+        <v>6.81126607458896e-10</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>5.151294991977434e-11</v>
+        <v>-3.964054020374027e-10</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>4.858946686424421e-11</v>
+        <v>-2.628086637314523e-11</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>4.987000250152768e-11</v>
+        <v>-3.216083371452762e-10</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>5.090749599804189e-11</v>
+        <v>6.509436874478035e-10</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>4.927963632368017e-11</v>
+        <v>4.115274722727328e-10</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>5.171107192565966e-11</v>
+        <v>1.266625283070724e-10</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>5.186978204164429e-11</v>
+        <v>8.784734648253491e-11</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>5.248252945721009e-11</v>
+        <v>-2.01421211794327e-10</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>5.099186874827699e-11</v>
+        <v>1.280629062497422e-10</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>5.065061832182874e-11</v>
+        <v>-2.008628748708412e-10</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>5.132525226561735e-11</v>
+        <v>1.212599864222796e-10</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>5.038090399068302e-11</v>
+        <v>4.202150898616194e-10</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>4.931214942410677e-11</v>
+        <v>7.840401610766048e-11</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>5.10222428441547e-11</v>
+        <v>3.271119764039822e-11</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>5.116541170499037e-11</v>
+        <v>5.587442856276663e-10</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>5.138453975254839e-11</v>
+        <v>-3.920727084390083e-10</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>4.876692152742497e-11</v>
+        <v>7.651405856633701e-11</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>5.038954291554449e-11</v>
+        <v>-4.012071266230716e-10</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>4.789812852468928e-11</v>
+        <v>9.283257131539613e-11</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>5.280443907651251e-11</v>
+        <v>4.500636053203103e-10</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>4.814755626003462e-11</v>
+        <v>2.29947604562398e-10</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>4.89297628442748e-11</v>
+        <v>1.440131360872418e-10</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>4.937432994086902e-11</v>
+        <v>1.666780862402942e-10</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>4.923385636601128e-11</v>
+        <v>-1.398174260306841e-10</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>5.166645008069519e-11</v>
+        <v>-6.473950617242106e-11</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>5.011071350243584e-11</v>
+        <v>-4.310723802526329e-10</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>5.107416208915695e-11</v>
+        <v>5.073202178141708e-10</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>4.854633032203874e-11</v>
+        <v>-6.710739528045995e-10</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>5.125655216329642e-11</v>
+        <v>-2.796384309847554e-10</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>5.063880780231164e-11</v>
+        <v>-6.483175540418508e-11</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>5.448079045951433e-11</v>
+        <v>3.056114780730725e-10</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>4.826619106931893e-11</v>
+        <v>1.209148686309747e-10</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>5.055520787676213e-11</v>
+        <v>-3.413215309362209e-10</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>4.701313537005161e-11</v>
+        <v>6.229428850845706e-11</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>5.217022927545812e-11</v>
+        <v>-6.499145086397492e-11</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>5.237546608534743e-11</v>
+        <v>-8.154971701651829e-12</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>5.154648187381299e-11</v>
+        <v>4.301711716477021e-12</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>5.069690081001894e-11</v>
+        <v>-3.826237175397158e-10</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>5.066329272770108e-11</v>
+        <v>2.607682515210111e-10</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>5.200712624690405e-11</v>
+        <v>-2.491270181121787e-10</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>4.936933800568623e-11</v>
+        <v>2.23789560438602e-10</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>5.333533473737168e-11</v>
+        <v>3.590139650532911e-11</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>5.306777196237646e-11</v>
+        <v>-1.554535079853815e-10</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>5.4552059114089e-11</v>
+        <v>-2.172042598843669e-10</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>5.058121690574477e-11</v>
+        <v>3.386372116006323e-10</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>5.177698218631029e-11</v>
+        <v>-2.950784316319472e-10</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>5.221670271543329e-11</v>
+        <v>-2.5558342295042e-11</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>5.176968547092588e-11</v>
+        <v>-9.843515435543577e-11</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>4.974109076285652e-11</v>
+        <v>-2.250127087336654e-10</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>4.885789356790093e-11</v>
+        <v>-4.701472406736024e-10</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>5.134341533509183e-11</v>
+        <v>-4.6890408952884e-11</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>5.160661739024504e-11</v>
+        <v>3.13030636563567e-11</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>5.071728977073558e-11</v>
+        <v>6.998417833895878e-11</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>4.932361851116847e-11</v>
+        <v>2.490221986180308e-10</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>4.789116306410289e-11</v>
+        <v>1.3795714784681e-10</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>5.15543627969752e-11</v>
+        <v>1.315206220979641e-10</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>5.134282129284403e-11</v>
+        <v>-1.970137558157324e-10</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>5.208707592968659e-11</v>
+        <v>5.63160124279736e-10</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>4.748434164391732e-11</v>
+        <v>1.185714042211537e-10</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>5.113491442514543e-11</v>
+        <v>-2.031380313038415e-10</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>5.091685470028341e-11</v>
+        <v>-4.49383383601595e-11</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>4.895266655599332e-11</v>
+        <v>-1.505686658044936e-10</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>5.119941536779763e-11</v>
+        <v>5.174035200133944e-11</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>5.061275134446453e-11</v>
+        <v>1.572995086526754e-10</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>5.574280472868773e-11</v>
+        <v>6.34553075771735e-10</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>5.144033080550179e-11</v>
+        <v>-8.268826845777854e-11</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>4.827741097108863e-11</v>
+        <v>1.537693521819319e-10</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>4.706776942995266e-11</v>
+        <v>-2.012052172800933e-10</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>5.028840363392464e-11</v>
+        <v>-9.996199270746189e-11</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>5.070433399706296e-11</v>
+        <v>-1.484563562619665e-10</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>5.126496164509348e-11</v>
+        <v>4.897964563033306e-10</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>5.431410062338242e-11</v>
+        <v>-3.847773478049239e-10</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>5.058864186620345e-11</v>
+        <v>4.704279442841745e-10</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>5.139653201216033e-11</v>
+        <v>-3.549544135436866e-10</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>4.96743987691334e-11</v>
+        <v>-2.149237101398006e-10</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>4.927773765538298e-11</v>
+        <v>-2.462545879179055e-10</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>5.118748084087704e-11</v>
+        <v>6.327621912632112e-11</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>4.459788444066938e-11</v>
+        <v>-5.897631380284943e-10</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>4.639425215683314e-11</v>
+        <v>8.121423619884817e-10</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>5.038955881513169e-11</v>
+        <v>-2.157084671175529e-10</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>5.023650999939249e-11</v>
+        <v>3.04595354250905e-10</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>5.259231029564228e-11</v>
+        <v>4.267669918515281e-10</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>5.115812641484839e-11</v>
+        <v>6.53950301447656e-11</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>4.955493672557052e-11</v>
+        <v>-8.051813760265057e-11</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>5.012374662298557e-11</v>
+        <v>-3.668195806937649e-10</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>5.188683290021285e-11</v>
+        <v>4.333576987163488e-10</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>5.29235140265354e-11</v>
+        <v>-1.059308749027068e-10</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>5.05018622982147e-11</v>
+        <v>-4.928337036724231e-11</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>4.627708982384043e-11</v>
+        <v>-1.384861377611333e-10</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>4.754718689825738e-11</v>
+        <v>-3.812723975764012e-10</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>4.88223178443965e-11</v>
+        <v>2.595886012773176e-10</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>4.987087833819409e-11</v>
+        <v>2.308506674817133e-10</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>5.251858598410209e-11</v>
+        <v>-8.303813214653873e-11</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>5.006567662393419e-11</v>
+        <v>1.43444375577681e-11</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>5.034765982157685e-11</v>
+        <v>9.63616058444986e-11</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>4.876602421577889e-11</v>
+        <v>2.918281917368334e-10</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>5.518763236411344e-11</v>
+        <v>5.217207430656365e-10</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>5.195067725069319e-11</v>
+        <v>3.929964842396026e-10</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>5.362754910559984e-11</v>
+        <v>-1.934600535261164e-10</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>5.072174945621666e-11</v>
+        <v>1.343966905792948e-10</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>5.439787100878585e-11</v>
+        <v>2.764824011228223e-10</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>4.978210006345146e-11</v>
+        <v>-1.883796575575406e-10</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>4.954403191457642e-11</v>
+        <v>1.876078110390761e-10</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>5.030360683407024e-11</v>
+        <v>-1.609310569200723e-10</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>5.573913073166531e-11</v>
+        <v>-2.421505976293526e-11</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>4.786350581490961e-11</v>
+        <v>6.118440663623053e-11</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>5.181130603879476e-11</v>
+        <v>-2.506519415103805e-10</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>5.152276546499695e-11</v>
+        <v>-7.539052309642109e-11</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>4.861148606818682e-11</v>
+        <v>7.036932237630079e-10</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>5.098418784922138e-11</v>
+        <v>3.324696280823862e-10</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>5.01307059651213e-11</v>
+        <v>-4.131844452974436e-10</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>5.045692467179536e-11</v>
+        <v>2.814027773260909e-10</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>4.762577971627666e-11</v>
+        <v>-5.21355224649757e-11</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>5.340198214392751e-11</v>
+        <v>3.752538061986457e-10</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>5.320806201867717e-11</v>
+        <v>-1.075141273513992e-10</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>5.050428218895913e-11</v>
+        <v>-2.757552497823358e-10</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>4.979894702452935e-11</v>
+        <v>2.156046707349143e-10</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>4.999842806991603e-11</v>
+        <v>1.834746076754429e-10</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>5.023662477724572e-11</v>
+        <v>7.27729907212179e-12</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>5.082744533848205e-11</v>
+        <v>-1.309678231806983e-10</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>4.823984435741089e-11</v>
+        <v>-6.474676786760973e-11</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>4.403993553547657e-11</v>
+        <v>3.497376057874436e-10</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>5.146787190346095e-11</v>
+        <v>-4.11100092861459e-10</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>5.011032216295826e-11</v>
+        <v>-6.739239034832502e-11</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>4.686365492398266e-11</v>
+        <v>2.463939112643718e-11</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>4.848886563966669e-11</v>
+        <v>3.242566563440755e-10</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>4.923774655422034e-11</v>
+        <v>3.522954949394374e-10</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>5.293105213003903e-11</v>
+        <v>-2.602963509232907e-10</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>5.229456930208288e-11</v>
+        <v>-3.276860833995168e-10</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>5.035960565877596e-11</v>
+        <v>2.508809321746145e-11</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>4.917825137493016e-11</v>
+        <v>2.731998327851951e-10</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>5.206283530845438e-11</v>
+        <v>-5.637712264831836e-11</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>5.107578719878969e-11</v>
+        <v>3.053639872412427e-10</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>5.124975444396591e-11</v>
+        <v>-2.181723473907638e-10</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>5.014623399702174e-11</v>
+        <v>-3.521923719322813e-10</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>4.742597840739752e-11</v>
+        <v>-2.916841572244513e-10</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>4.735665701734769e-11</v>
+        <v>3.71432518352209e-10</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>5.155067992274143e-11</v>
+        <v>1.606986038132879e-10</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>4.711570246387818e-11</v>
+        <v>3.295620988607454e-10</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>5.188669122742451e-11</v>
+        <v>-6.963067274851924e-10</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>5.149833168636614e-11</v>
+        <v>-2.060609404221323e-10</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>4.728225058598694e-11</v>
+        <v>4.294863852866285e-10</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>4.948914882124099e-11</v>
+        <v>4.582388947328564e-10</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>4.872472067306138e-11</v>
+        <v>-5.006278630091929e-10</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>4.719741746243582e-11</v>
+        <v>3.52787800812672e-10</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>4.999166630979609e-11</v>
+        <v>2.829894014217773e-11</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>5.148303732206809e-11</v>
+        <v>9.387186696083568e-11</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>5.080091942781581e-11</v>
+        <v>7.130306546521138e-10</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>4.91003671464885e-11</v>
+        <v>-2.462159634944449e-10</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>5.212310988612549e-11</v>
+        <v>-2.105917132929639e-10</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>5.404346647499382e-11</v>
+        <v>-3.605911678689632e-10</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>4.825120673998892e-11</v>
+        <v>-6.83433269281043e-12</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>5.1951387382631e-11</v>
+        <v>-7.662979699854146e-11</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>5.001809275270403e-11</v>
+        <v>2.234097589754035e-10</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>4.952183458138943e-11</v>
+        <v>2.335987805541054e-10</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>4.870227854207339e-11</v>
+        <v>5.918216724578457e-11</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>5.074526192856199e-11</v>
+        <v>-2.445753072354129e-10</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>5.248477378449656e-11</v>
+        <v>-3.555902228534157e-10</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>5.382469050666576e-11</v>
+        <v>2.293167290746467e-10</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>4.919045991465401e-11</v>
+        <v>-4.492087343981122e-10</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>4.944775211598216e-11</v>
+        <v>1.551483536019686e-10</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>5.095715210693246e-11</v>
+        <v>-2.364397690568264e-10</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>4.738301572721613e-11</v>
+        <v>-3.375783263248429e-11</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>5.112888159415201e-11</v>
+        <v>2.014494242109256e-10</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>5.175097897499394e-11</v>
+        <v>-6.459476928729129e-11</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>4.857858496895183e-11</v>
+        <v>-4.719505920587803e-11</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>5.41714354474305e-11</v>
+        <v>1.045309345018211e-10</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>5.128096158829875e-11</v>
+        <v>2.457481937522393e-10</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>5.070198279920101e-11</v>
+        <v>-9.612544996790279e-11</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>5.232362735716567e-11</v>
+        <v>5.023463139323506e-10</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>4.919886274413899e-11</v>
+        <v>-5.699571558959807e-10</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>5.220748763011497e-11</v>
+        <v>1.696520213013023e-10</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>5.412779633481092e-11</v>
+        <v>3.452925647492218e-10</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>5.272024874805676e-11</v>
+        <v>1.988139886508565e-10</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>4.884923574968841e-11</v>
+        <v>2.665532657686352e-10</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>4.962304919471081e-11</v>
+        <v>6.153456864950216e-11</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>4.981963843804122e-11</v>
+        <v>4.436174344576453e-10</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>5.325506950493923e-11</v>
+        <v>-1.854623809404116e-10</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>5.308530759859673e-11</v>
+        <v>3.774402053534771e-10</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>5.285005321297362e-11</v>
+        <v>1.986439064612652e-10</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>5.058017960766672e-11</v>
+        <v>-4.809374274320659e-10</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>5.149163399718508e-11</v>
+        <v>8.901569554739751e-11</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>5.170201901667525e-11</v>
+        <v>3.900365246879494e-10</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>5.107843043726638e-11</v>
+        <v>9.800791325973609e-12</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>5.16193285143766e-11</v>
+        <v>-1.612775379983916e-11</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>5.130535884842873e-11</v>
+        <v>-7.148324754385359e-12</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>4.957477975057656e-11</v>
+        <v>-2.202431091831369e-10</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>5.289616693606756e-11</v>
+        <v>2.874676591444402e-10</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>4.875382783763634e-11</v>
+        <v>1.337594407345513e-10</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>4.90707171535316e-11</v>
+        <v>1.13773493642008e-10</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>5.482931560781158e-11</v>
+        <v>-2.93808324719223e-11</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>4.734203554719709e-11</v>
+        <v>-9.575418474404559e-11</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>4.89770030859965e-11</v>
+        <v>3.598387187335472e-11</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>4.879029995290717e-11</v>
+        <v>1.993631912803299e-10</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>5.172025914601994e-11</v>
+        <v>-5.57740967370468e-10</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>5.181550466906957e-11</v>
+        <v>-4.657485072557756e-10</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>5.028134453563138e-11</v>
+        <v>-3.574134754411084e-11</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>5.14129062639517e-11</v>
+        <v>4.519073222663092e-10</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>5.14334726382056e-11</v>
+        <v>2.273756029736155e-10</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>5.118740856125323e-11</v>
+        <v>5.635549466078974e-10</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>4.558212198300523e-11</v>
+        <v>-3.704301418069772e-11</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>4.725114777712063e-11</v>
+        <v>-6.116227468237563e-10</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>5.263001990859045e-11</v>
+        <v>-7.515940360213429e-12</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>4.946002578073236e-11</v>
+        <v>1.532428700155152e-10</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>4.829096644778647e-11</v>
+        <v>1.737922705045119e-10</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>4.925013419496075e-11</v>
+        <v>5.730934660406706e-10</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>4.975875841754261e-11</v>
+        <v>1.258777376437878e-11</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>5.18518541895237e-11</v>
+        <v>-4.525617672970364e-10</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>4.938863575547285e-11</v>
+        <v>5.263789622705925e-10</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>5.147186053127297e-11</v>
+        <v>-2.160698562171172e-11</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>5.180907650422532e-11</v>
+        <v>-2.593519406691747e-10</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>5.242104960592514e-11</v>
+        <v>2.676172458366368e-10</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>5.021219371215949e-11</v>
+        <v>2.948356890129244e-10</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>4.868041598589569e-11</v>
+        <v>-3.294170220467382e-10</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>5.063722655523688e-11</v>
+        <v>-4.470523220780669e-11</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>5.197801868712643e-11</v>
+        <v>-1.505355238983148e-10</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>5.107428277867119e-11</v>
+        <v>2.538243240505404e-10</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>4.902660125473425e-11</v>
+        <v>-2.216564872801161e-10</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>5.076728599572887e-11</v>
+        <v>-4.531782322542038e-10</v>
       </c>
     </row>
   </sheetData>
